--- a/TF/codes/results/plot/finals/fickPlasma.xlsx
+++ b/TF/codes/results/plot/finals/fickPlasma.xlsx
@@ -24,12 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>?</t>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>1 h</t>
+  </si>
+  <si>
+    <t>2 h</t>
   </si>
 </sst>
 </file>
@@ -93,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -103,6 +115,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -390,7 +406,7 @@
   <dimension ref="A1:MM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6:GS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,1057 +1080,757 @@
       <c r="GS1" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="GT1" s="3">
-        <v>20</v>
-      </c>
-      <c r="GU1" s="3">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="GV1" s="3">
-        <v>20.2</v>
-      </c>
-      <c r="GW1" s="3">
-        <v>20.3</v>
-      </c>
-      <c r="GX1" s="3">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="GY1" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="GZ1" s="3">
-        <v>20.6</v>
-      </c>
-      <c r="HA1" s="3">
-        <v>20.7</v>
-      </c>
-      <c r="HB1" s="3">
-        <v>20.8</v>
-      </c>
-      <c r="HC1" s="3">
-        <v>20.9</v>
-      </c>
-      <c r="HD1" s="3">
-        <v>21</v>
-      </c>
-      <c r="HE1" s="3">
-        <v>21.1</v>
-      </c>
-      <c r="HF1" s="3">
-        <v>21.2</v>
-      </c>
-      <c r="HG1" s="3">
-        <v>21.3</v>
-      </c>
-      <c r="HH1" s="3">
-        <v>21.4</v>
-      </c>
-      <c r="HI1" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="HJ1" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="HK1" s="3">
-        <v>21.7</v>
-      </c>
-      <c r="HL1" s="3">
-        <v>21.8</v>
-      </c>
-      <c r="HM1" s="3">
-        <v>21.9</v>
-      </c>
-      <c r="HN1" s="3">
-        <v>22</v>
-      </c>
-      <c r="HO1" s="3">
-        <v>22.1</v>
-      </c>
-      <c r="HP1" s="3">
-        <v>22.2</v>
-      </c>
-      <c r="HQ1" s="3">
-        <v>22.3</v>
-      </c>
-      <c r="HR1" s="3">
-        <v>22.4</v>
-      </c>
-      <c r="HS1" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="HT1" s="3">
-        <v>22.6</v>
-      </c>
-      <c r="HU1" s="3">
-        <v>22.7</v>
-      </c>
-      <c r="HV1" s="3">
-        <v>22.8</v>
-      </c>
-      <c r="HW1" s="3">
-        <v>22.9</v>
-      </c>
-      <c r="HX1" s="3">
-        <v>23</v>
-      </c>
-      <c r="HY1" s="3">
-        <v>23.1</v>
-      </c>
-      <c r="HZ1" s="3">
-        <v>23.2</v>
-      </c>
-      <c r="IA1" s="3">
-        <v>23.3</v>
-      </c>
-      <c r="IB1" s="3">
-        <v>23.4</v>
-      </c>
-      <c r="IC1" s="3">
-        <v>23.5</v>
-      </c>
-      <c r="ID1" s="3">
-        <v>23.6</v>
-      </c>
-      <c r="IE1" s="3">
-        <v>23.7</v>
-      </c>
-      <c r="IF1" s="3">
-        <v>23.8</v>
-      </c>
-      <c r="IG1" s="3">
-        <v>23.9</v>
-      </c>
-      <c r="IH1" s="3">
-        <v>24</v>
-      </c>
-      <c r="II1" s="3">
-        <v>24.1</v>
-      </c>
-      <c r="IJ1" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="IK1" s="3">
-        <v>24.3</v>
-      </c>
-      <c r="IL1" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="IM1" s="3">
-        <v>24.5</v>
-      </c>
-      <c r="IN1" s="3">
-        <v>24.6</v>
-      </c>
-      <c r="IO1" s="3">
-        <v>24.7</v>
-      </c>
-      <c r="IP1" s="3">
-        <v>24.8</v>
-      </c>
-      <c r="IQ1" s="3">
-        <v>24.9</v>
-      </c>
-      <c r="IR1" s="3">
-        <v>25</v>
-      </c>
-      <c r="IS1" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="IT1" s="3">
-        <v>25.2</v>
-      </c>
-      <c r="IU1" s="3">
-        <v>25.3</v>
-      </c>
-      <c r="IV1" s="3">
-        <v>25.4</v>
-      </c>
-      <c r="IW1" s="3">
-        <v>25.5</v>
-      </c>
-      <c r="IX1" s="3">
-        <v>25.6</v>
-      </c>
-      <c r="IY1" s="3">
-        <v>25.7</v>
-      </c>
-      <c r="IZ1" s="3">
-        <v>25.8</v>
-      </c>
-      <c r="JA1" s="3">
-        <v>25.9</v>
-      </c>
-      <c r="JB1" s="3">
-        <v>26</v>
-      </c>
-      <c r="JC1" s="3">
-        <v>26.1</v>
-      </c>
-      <c r="JD1" s="3">
-        <v>26.2</v>
-      </c>
-      <c r="JE1" s="3">
-        <v>26.3</v>
-      </c>
-      <c r="JF1" s="3">
-        <v>26.4</v>
-      </c>
-      <c r="JG1" s="3">
-        <v>26.5</v>
-      </c>
-      <c r="JH1" s="3">
-        <v>26.6</v>
-      </c>
-      <c r="JI1" s="3">
-        <v>26.7</v>
-      </c>
-      <c r="JJ1" s="3">
-        <v>26.8</v>
-      </c>
-      <c r="JK1" s="3">
-        <v>26.9</v>
-      </c>
-      <c r="JL1" s="3">
-        <v>27</v>
-      </c>
-      <c r="JM1" s="3">
-        <v>27.1</v>
-      </c>
-      <c r="JN1" s="3">
-        <v>27.2</v>
-      </c>
-      <c r="JO1" s="3">
-        <v>27.3</v>
-      </c>
-      <c r="JP1" s="3">
-        <v>27.4</v>
-      </c>
-      <c r="JQ1" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="JR1" s="3">
-        <v>27.6</v>
-      </c>
-      <c r="JS1" s="3">
-        <v>27.7</v>
-      </c>
-      <c r="JT1" s="3">
-        <v>27.8</v>
-      </c>
-      <c r="JU1" s="3">
-        <v>27.9</v>
-      </c>
-      <c r="JV1" s="3">
-        <v>28</v>
-      </c>
-      <c r="JW1" s="3">
-        <v>28.1</v>
-      </c>
-      <c r="JX1" s="3">
-        <v>28.2</v>
-      </c>
-      <c r="JY1" s="3">
-        <v>28.3</v>
-      </c>
-      <c r="JZ1" s="3">
-        <v>28.4</v>
-      </c>
-      <c r="KA1" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="KB1" s="3">
-        <v>28.6</v>
-      </c>
-      <c r="KC1" s="3">
-        <v>28.7</v>
-      </c>
-      <c r="KD1" s="3">
-        <v>28.8</v>
-      </c>
-      <c r="KE1" s="3">
-        <v>28.9</v>
-      </c>
-      <c r="KF1" s="3">
-        <v>29</v>
-      </c>
-      <c r="KG1" s="3">
-        <v>29.1</v>
-      </c>
-      <c r="KH1" s="3">
-        <v>29.2</v>
-      </c>
-      <c r="KI1" s="3">
-        <v>29.3</v>
-      </c>
-      <c r="KJ1" s="3">
-        <v>29.4</v>
-      </c>
-      <c r="KK1" s="3">
-        <v>29.5</v>
-      </c>
-      <c r="KL1" s="3">
-        <v>29.6</v>
-      </c>
-      <c r="KM1" s="3">
-        <v>29.7</v>
-      </c>
-      <c r="KN1" s="3">
-        <v>29.8</v>
-      </c>
-      <c r="KO1" s="3">
-        <v>29.9</v>
-      </c>
-      <c r="KP1" s="3">
-        <v>30</v>
-      </c>
-      <c r="KQ1" s="3">
-        <v>30.1</v>
-      </c>
-      <c r="KR1" s="3">
-        <v>30.2</v>
-      </c>
-      <c r="KS1" s="3">
-        <v>30.3</v>
-      </c>
-      <c r="KT1" s="3">
-        <v>30.4</v>
-      </c>
-      <c r="KU1" s="3">
-        <v>30.5</v>
-      </c>
-      <c r="KV1" s="3">
-        <v>30.6</v>
-      </c>
-      <c r="KW1" s="3">
-        <v>30.7</v>
-      </c>
-      <c r="KX1" s="3">
-        <v>30.8</v>
-      </c>
-      <c r="KY1" s="3">
-        <v>30.9</v>
-      </c>
-      <c r="KZ1" s="3">
-        <v>31</v>
-      </c>
-      <c r="LA1" s="3">
-        <v>31.1</v>
-      </c>
-      <c r="LB1" s="3">
-        <v>31.2</v>
-      </c>
-      <c r="LC1" s="3">
-        <v>31.3</v>
-      </c>
-      <c r="LD1" s="3">
-        <v>31.4</v>
-      </c>
-      <c r="LE1" s="3">
-        <v>31.5</v>
-      </c>
-      <c r="LF1" s="3">
-        <v>31.6</v>
-      </c>
-      <c r="LG1" s="3">
-        <v>31.7</v>
-      </c>
-      <c r="LH1" s="3">
-        <v>31.8</v>
-      </c>
-      <c r="LI1" s="3">
-        <v>31.9</v>
-      </c>
-      <c r="LJ1" s="3">
-        <v>32</v>
-      </c>
-      <c r="LK1" s="3">
-        <v>32.1</v>
-      </c>
-      <c r="LL1" s="3">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="LM1" s="3">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="LN1" s="3">
-        <v>32.4</v>
-      </c>
-      <c r="LO1" s="3">
-        <v>32.5</v>
-      </c>
-      <c r="LP1" s="3">
-        <v>32.6</v>
-      </c>
-      <c r="LQ1" s="3">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="LR1" s="3">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="LS1" s="3">
-        <v>32.9</v>
-      </c>
-      <c r="LT1" s="3">
-        <v>33</v>
-      </c>
-      <c r="LU1" s="3">
-        <v>33.1</v>
-      </c>
-      <c r="LV1" s="3">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="LW1" s="3">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="LX1" s="3">
-        <v>33.4</v>
-      </c>
-      <c r="LY1" s="3">
-        <v>33.5</v>
-      </c>
-      <c r="LZ1" s="3">
-        <v>33.6</v>
-      </c>
-      <c r="MA1" s="3">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="MB1" s="3">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="MC1" s="3">
-        <v>33.9</v>
-      </c>
-      <c r="MD1" s="3">
-        <v>34</v>
-      </c>
-      <c r="ME1" s="3">
-        <v>34.1</v>
-      </c>
-      <c r="MF1" s="3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="MG1" s="3">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="MH1" s="3">
-        <v>34.4</v>
-      </c>
-      <c r="MI1" s="3">
-        <v>34.5</v>
-      </c>
-      <c r="MJ1" s="3">
-        <v>34.6</v>
-      </c>
-      <c r="MK1" s="3">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="ML1" s="3">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="MM1" s="3">
-        <v>34.9</v>
-      </c>
+      <c r="GT1" s="3"/>
+      <c r="GU1" s="3"/>
+      <c r="GV1" s="3"/>
+      <c r="GW1" s="3"/>
+      <c r="GX1" s="3"/>
+      <c r="GY1" s="3"/>
+      <c r="GZ1" s="3"/>
+      <c r="HA1" s="3"/>
+      <c r="HB1" s="3"/>
+      <c r="HC1" s="3"/>
+      <c r="HD1" s="3"/>
+      <c r="HE1" s="3"/>
+      <c r="HF1" s="3"/>
+      <c r="HG1" s="3"/>
+      <c r="HH1" s="3"/>
+      <c r="HI1" s="3"/>
+      <c r="HJ1" s="3"/>
+      <c r="HK1" s="3"/>
+      <c r="HL1" s="3"/>
+      <c r="HM1" s="3"/>
+      <c r="HN1" s="3"/>
+      <c r="HO1" s="3"/>
+      <c r="HP1" s="3"/>
+      <c r="HQ1" s="3"/>
+      <c r="HR1" s="3"/>
+      <c r="HS1" s="3"/>
+      <c r="HT1" s="3"/>
+      <c r="HU1" s="3"/>
+      <c r="HV1" s="3"/>
+      <c r="HW1" s="3"/>
+      <c r="HX1" s="3"/>
+      <c r="HY1" s="3"/>
+      <c r="HZ1" s="3"/>
+      <c r="IA1" s="3"/>
+      <c r="IB1" s="3"/>
+      <c r="IC1" s="3"/>
+      <c r="ID1" s="3"/>
+      <c r="IE1" s="3"/>
+      <c r="IF1" s="3"/>
+      <c r="IG1" s="3"/>
+      <c r="IH1" s="3"/>
+      <c r="II1" s="3"/>
+      <c r="IJ1" s="3"/>
+      <c r="IK1" s="3"/>
+      <c r="IL1" s="3"/>
+      <c r="IM1" s="3"/>
+      <c r="IN1" s="3"/>
+      <c r="IO1" s="3"/>
+      <c r="IP1" s="3"/>
+      <c r="IQ1" s="3"/>
+      <c r="IR1" s="3"/>
+      <c r="IS1" s="3"/>
+      <c r="IT1" s="3"/>
+      <c r="IU1" s="3"/>
+      <c r="IV1" s="3"/>
+      <c r="IW1" s="3"/>
+      <c r="IX1" s="3"/>
+      <c r="IY1" s="3"/>
+      <c r="IZ1" s="3"/>
+      <c r="JA1" s="3"/>
+      <c r="JB1" s="3"/>
+      <c r="JC1" s="3"/>
+      <c r="JD1" s="3"/>
+      <c r="JE1" s="3"/>
+      <c r="JF1" s="3"/>
+      <c r="JG1" s="3"/>
+      <c r="JH1" s="3"/>
+      <c r="JI1" s="3"/>
+      <c r="JJ1" s="3"/>
+      <c r="JK1" s="3"/>
+      <c r="JL1" s="3"/>
+      <c r="JM1" s="3"/>
+      <c r="JN1" s="3"/>
+      <c r="JO1" s="3"/>
+      <c r="JP1" s="3"/>
+      <c r="JQ1" s="3"/>
+      <c r="JR1" s="3"/>
+      <c r="JS1" s="3"/>
+      <c r="JT1" s="3"/>
+      <c r="JU1" s="3"/>
+      <c r="JV1" s="3"/>
+      <c r="JW1" s="3"/>
+      <c r="JX1" s="3"/>
+      <c r="JY1" s="3"/>
+      <c r="JZ1" s="3"/>
+      <c r="KA1" s="3"/>
+      <c r="KB1" s="3"/>
+      <c r="KC1" s="3"/>
+      <c r="KD1" s="3"/>
+      <c r="KE1" s="3"/>
+      <c r="KF1" s="3"/>
+      <c r="KG1" s="3"/>
+      <c r="KH1" s="3"/>
+      <c r="KI1" s="3"/>
+      <c r="KJ1" s="3"/>
+      <c r="KK1" s="3"/>
+      <c r="KL1" s="3"/>
+      <c r="KM1" s="3"/>
+      <c r="KN1" s="3"/>
+      <c r="KO1" s="3"/>
+      <c r="KP1" s="3"/>
+      <c r="KQ1" s="3"/>
+      <c r="KR1" s="3"/>
+      <c r="KS1" s="3"/>
+      <c r="KT1" s="3"/>
+      <c r="KU1" s="3"/>
+      <c r="KV1" s="3"/>
+      <c r="KW1" s="3"/>
+      <c r="KX1" s="3"/>
+      <c r="KY1" s="3"/>
+      <c r="KZ1" s="3"/>
+      <c r="LA1" s="3"/>
+      <c r="LB1" s="3"/>
+      <c r="LC1" s="3"/>
+      <c r="LD1" s="3"/>
+      <c r="LE1" s="3"/>
+      <c r="LF1" s="3"/>
+      <c r="LG1" s="3"/>
+      <c r="LH1" s="3"/>
+      <c r="LI1" s="3"/>
+      <c r="LJ1" s="3"/>
+      <c r="LK1" s="3"/>
+      <c r="LL1" s="3"/>
+      <c r="LM1" s="3"/>
+      <c r="LN1" s="3"/>
+      <c r="LO1" s="3"/>
+      <c r="LP1" s="3"/>
+      <c r="LQ1" s="3"/>
+      <c r="LR1" s="3"/>
+      <c r="LS1" s="3"/>
+      <c r="LT1" s="3"/>
+      <c r="LU1" s="3"/>
+      <c r="LV1" s="3"/>
+      <c r="LW1" s="3"/>
+      <c r="LX1" s="3"/>
+      <c r="LY1" s="3"/>
+      <c r="LZ1" s="3"/>
+      <c r="MA1" s="3"/>
+      <c r="MB1" s="3"/>
+      <c r="MC1" s="3"/>
+      <c r="MD1" s="3"/>
+      <c r="ME1" s="3"/>
+      <c r="MF1" s="3"/>
+      <c r="MG1" s="3"/>
+      <c r="MH1" s="3"/>
+      <c r="MI1" s="3"/>
+      <c r="MJ1" s="3"/>
+      <c r="MK1" s="3"/>
+      <c r="ML1" s="3"/>
+      <c r="MM1" s="3"/>
     </row>
     <row r="2" spans="1:351" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>7240274529525974</v>
+        <v>3.6543693860802348E+27</v>
       </c>
       <c r="C2" s="8">
-        <v>6899442275006180</v>
+        <v>1.980151975848045E+27</v>
       </c>
       <c r="D2" s="8">
-        <v>6569197158648729</v>
+        <v>9.6686396275244741E+26</v>
       </c>
       <c r="E2" s="8">
-        <v>6249508930220111</v>
+        <v>4.2519994908425697E+26</v>
       </c>
       <c r="F2" s="8">
-        <v>5940332376430406</v>
+        <v>1.6877417548840241E+26</v>
       </c>
       <c r="G2" s="8">
-        <v>5641607514112305</v>
+        <v>6.0693303960101042E+25</v>
       </c>
       <c r="H2" s="8">
-        <v>5353259845643625</v>
+        <v>1.986598491010535E+25</v>
       </c>
       <c r="I2" s="8">
-        <v>5075200674803154</v>
+        <v>5.9480140990957577E+24</v>
       </c>
       <c r="J2" s="8">
-        <v>4807327480827306</v>
+        <v>1.6371463493379589E+24</v>
       </c>
       <c r="K2" s="8">
-        <v>4549524348038983</v>
+        <v>4.1623601302480172E+23</v>
       </c>
       <c r="L2" s="8">
-        <v>4301662448048596</v>
+        <v>9.8195564466132872E+22</v>
       </c>
       <c r="M2" s="8">
-        <v>4063600571185448</v>
+        <v>2.158592255431131E+22</v>
       </c>
       <c r="N2" s="8">
-        <v>3835185703508000</v>
+        <v>4.4387632098386358E+21</v>
       </c>
       <c r="O2" s="8">
-        <v>3616253645467772</v>
+        <v>8.5687216759182E+20</v>
       </c>
       <c r="P2" s="8">
-        <v>3406629668064002</v>
+        <v>1.557955761258498E+20</v>
       </c>
       <c r="Q2" s="8">
-        <v>3206129202128853</v>
+        <v>2.6759856788089512E+19</v>
       </c>
       <c r="R2" s="8">
-        <v>3014558556225198</v>
+        <v>4.3541078934208138E+18</v>
       </c>
       <c r="S2" s="8">
-        <v>2831715658523355</v>
+        <v>6.7282357965007373E+17</v>
       </c>
       <c r="T2" s="8">
-        <v>2657390817948333</v>
+        <v>9.8969620539115856E+16</v>
       </c>
       <c r="U2" s="8">
-        <v>2491367499856594</v>
+        <v>1.388782528861258E+16</v>
       </c>
       <c r="V2" s="8">
-        <v>2333423111509581</v>
+        <v>1862772915382614</v>
       </c>
       <c r="W2" s="8">
-        <v>2183329792658681</v>
+        <v>239263472370382.5</v>
       </c>
       <c r="X2" s="8">
-        <v>2040855206643716</v>
+        <v>29479714473400.57</v>
       </c>
       <c r="Y2" s="8">
-        <v>1905763327529319</v>
+        <v>3489697499596.3701</v>
       </c>
       <c r="Z2" s="8">
-        <v>1777815218961562</v>
+        <v>397475024416.2926</v>
       </c>
       <c r="AA2" s="8">
-        <v>1656769800616317</v>
+        <v>43620080395.796494</v>
       </c>
       <c r="AB2" s="8">
-        <v>1542384598328995</v>
+        <v>4618231030.3357134</v>
       </c>
       <c r="AC2" s="8">
-        <v>1434416474239802</v>
+        <v>472280449.29288161</v>
       </c>
       <c r="AD2" s="8">
-        <v>1332622333555296</v>
+        <v>46703516.805417083</v>
       </c>
       <c r="AE2" s="8">
-        <v>1236759804813239</v>
+        <v>4470798.7100494597</v>
       </c>
       <c r="AF2" s="8">
-        <v>1146587890839596</v>
+        <v>414705.78625769779</v>
       </c>
       <c r="AG2" s="8">
-        <v>1061867587900569</v>
+        <v>37309.823806046239</v>
       </c>
       <c r="AH2" s="8">
-        <v>982362470875276.25</v>
+        <v>3258.5190117593961</v>
       </c>
       <c r="AI2" s="8">
-        <v>907839242602620.87</v>
+        <v>276.50059271917752</v>
       </c>
       <c r="AJ2" s="8">
-        <v>838068245885205.37</v>
+        <v>22.813713762531609</v>
       </c>
       <c r="AK2" s="8">
-        <v>772823936961401.12</v>
+        <v>1.831670870106811</v>
       </c>
       <c r="AL2" s="8">
-        <v>711885319579584</v>
+        <v>0.14320599733637551</v>
       </c>
       <c r="AM2" s="8">
-        <v>655036339124406.25</v>
+        <v>1.0910198605321161E-2</v>
       </c>
       <c r="AN2" s="8">
-        <v>602066236549837.62</v>
+        <v>8.1048097572663158E-4</v>
       </c>
       <c r="AO2" s="8">
-        <v>552769862166178</v>
+        <v>5.8743445217207742E-5</v>
       </c>
       <c r="AP2" s="8">
-        <v>506947949605262.12</v>
+        <v>4.1565948493766074E-6</v>
       </c>
       <c r="AQ2" s="8">
-        <v>464407350548362.37</v>
+        <v>2.8729055175672771E-7</v>
       </c>
       <c r="AR2" s="8">
-        <v>424961231042678.12</v>
+        <v>1.9406320113040059E-8</v>
       </c>
       <c r="AS2" s="8">
-        <v>388429230453829.81</v>
+        <v>1.2818166935142431E-9</v>
       </c>
       <c r="AT2" s="8">
-        <v>354637584302129.62</v>
+        <v>8.2829056959401502E-11</v>
       </c>
       <c r="AU2" s="8">
-        <v>323419212409026.87</v>
+        <v>5.2386311987517499E-12</v>
       </c>
       <c r="AV2" s="8">
-        <v>294613773936363.62</v>
+        <v>3.2443456592725199E-13</v>
       </c>
       <c r="AW2" s="8">
-        <v>268067691034829.81</v>
+        <v>1.9683330420746339E-14</v>
       </c>
       <c r="AX2" s="8">
-        <v>243634142929409.69</v>
+        <v>1.170341966265779E-15</v>
       </c>
       <c r="AY2" s="8">
-        <v>221173032358756.81</v>
+        <v>6.822495610730566E-17</v>
       </c>
       <c r="AZ2" s="8">
-        <v>200550926353047.5</v>
+        <v>3.9008297594457009E-18</v>
       </c>
       <c r="BA2" s="8">
-        <v>181640973381641.31</v>
+        <v>2.18833944487541E-19</v>
       </c>
       <c r="BB2" s="8">
-        <v>164322798928660.81</v>
+        <v>1.20495589627415E-20</v>
       </c>
       <c r="BC2" s="8">
-        <v>148482381562564.91</v>
+        <v>6.5144178347754772E-22</v>
       </c>
       <c r="BD2" s="8">
-        <v>134011911556100.2</v>
+        <v>3.4591707545785379E-23</v>
       </c>
       <c r="BE2" s="8">
-        <v>120809634086993.41</v>
+        <v>1.804675966378783E-24</v>
       </c>
       <c r="BF2" s="8">
-        <v>108779679008835.3</v>
+        <v>9.253189651747185E-26</v>
       </c>
       <c r="BG2" s="8">
-        <v>97831879127270.812</v>
+        <v>4.6642123210841007E-27</v>
       </c>
       <c r="BH2" s="8">
-        <v>87881578850308.281</v>
+        <v>2.3119854801190499E-28</v>
       </c>
       <c r="BI2" s="8">
-        <v>78849435004943.891</v>
+        <v>1.127283274386516E-29</v>
       </c>
       <c r="BJ2" s="8">
-        <v>70661211526763.172</v>
+        <v>5.4080353973549482E-31</v>
       </c>
       <c r="BK2" s="8">
-        <v>63247569636340.977</v>
+        <v>2.5533955914459021E-32</v>
       </c>
       <c r="BL2" s="8">
-        <v>56543855017536.992</v>
+        <v>1.186803646710525E-33</v>
       </c>
       <c r="BM2" s="8">
-        <v>50489883409598.672</v>
+        <v>5.4316092711744987E-35</v>
       </c>
       <c r="BN2" s="8">
-        <v>45029725918710.977</v>
+        <v>2.4483331540490559E-36</v>
       </c>
       <c r="BO2" s="8">
-        <v>40111495246525.742</v>
+        <v>1.087189445011613E-37</v>
       </c>
       <c r="BP2" s="8">
-        <v>35687133924461.453</v>
+        <v>4.7569664557001587E-39</v>
       </c>
       <c r="BQ2" s="8">
-        <v>31712205534281.512</v>
+        <v>2.0513496967603979E-40</v>
       </c>
       <c r="BR2" s="8">
-        <v>28145689788632.352</v>
+        <v>8.7201903495477972E-42</v>
       </c>
       <c r="BS2" s="8">
-        <v>24949782240730.34</v>
+        <v>3.65492264442163E-43</v>
       </c>
       <c r="BT2" s="8">
-        <v>22089699291035.07</v>
+        <v>1.5107173002953451E-44</v>
       </c>
       <c r="BU2" s="8">
-        <v>19533489061208.09</v>
+        <v>6.1592162187316557E-46</v>
       </c>
       <c r="BV2" s="8">
-        <v>17251848612503.641</v>
+        <v>2.477348432576578E-47</v>
       </c>
       <c r="BW2" s="8">
-        <v>15217947897456.9</v>
+        <v>9.8321410074011645E-49</v>
       </c>
       <c r="BX2" s="8">
-        <v>13407260750705.131</v>
+        <v>3.8511135497734472E-50</v>
       </c>
       <c r="BY2" s="8">
-        <v>11797403147268.23</v>
+        <v>1.488941388304768E-51</v>
       </c>
       <c r="BZ2" s="8">
-        <v>10367978884850.439</v>
+        <v>5.6832376470423909E-53</v>
       </c>
       <c r="CA2" s="8">
-        <v>9100432780794.3828</v>
+        <v>2.141967986601232E-54</v>
       </c>
       <c r="CB2" s="8">
-        <v>7977911414284.8057</v>
+        <v>7.9725872902978368E-56</v>
       </c>
       <c r="CC2" s="8">
-        <v>6985131390221.3389</v>
+        <v>2.9310498436290407E-57</v>
       </c>
       <c r="CD2" s="8">
-        <v>6108255052778.4854</v>
+        <v>1.0645143713387051E-58</v>
       </c>
       <c r="CE2" s="8">
-        <v>5334773533901.5664</v>
+        <v>3.8198774887851767E-60</v>
       </c>
       <c r="CF2" s="8">
-        <v>4653396984665.3145</v>
+        <v>1.354504772523676E-61</v>
       </c>
       <c r="CG2" s="8">
-        <v>4053951805318.0708</v>
+        <v>4.7468658859188189E-63</v>
       </c>
       <c r="CH2" s="8">
-        <v>3527284662694.0288</v>
+        <v>1.6443314688902451E-64</v>
       </c>
       <c r="CI2" s="8">
-        <v>3065173061212.8608</v>
+        <v>5.6310194475608008E-66</v>
       </c>
       <c r="CJ2" s="8">
-        <v>2660242215597.4258</v>
+        <v>1.9065923852373099E-67</v>
       </c>
       <c r="CK2" s="8">
-        <v>2305887959410.4648</v>
+        <v>6.383494053388435E-69</v>
       </c>
       <c r="CL2" s="8">
-        <v>1996205413213.176</v>
+        <v>2.1137040778657499E-70</v>
       </c>
       <c r="CM2" s="8">
-        <v>1725923129257.0959</v>
+        <v>6.9225987582820814E-72</v>
       </c>
       <c r="CN2" s="8">
-        <v>1490342425805.2671</v>
+        <v>2.2427781984574781E-73</v>
       </c>
       <c r="CO2" s="8">
-        <v>1285281623119.6111</v>
+        <v>7.1886523573903585E-75</v>
       </c>
       <c r="CP2" s="8">
-        <v>1107024894532.7451</v>
+        <v>2.2798344945989761E-76</v>
       </c>
       <c r="CQ2" s="8">
-        <v>952275449541.76416</v>
+        <v>7.1548982558203796E-78</v>
       </c>
       <c r="CR2" s="8">
-        <v>818112771228.7699</v>
+        <v>2.2222682919426319E-79</v>
       </c>
       <c r="CS2" s="8">
-        <v>701953637253.5426</v>
+        <v>6.8317187328958789E-81</v>
       </c>
       <c r="CT2" s="8">
-        <v>601516661919.58667</v>
+        <v>2.0789810317578899E-82</v>
       </c>
       <c r="CU2" s="8">
-        <v>514790106145.99841</v>
+        <v>6.2633083220171904E-84</v>
       </c>
       <c r="CV2" s="8">
-        <v>440002712362.22491</v>
+        <v>1.8682479179981521E-85</v>
       </c>
       <c r="CW2" s="8">
-        <v>375597332177.92841</v>
+        <v>5.518061299995315E-87</v>
       </c>
       <c r="CX2" s="8">
-        <v>320207125981.74487</v>
+        <v>1.6139973404727891E-88</v>
       </c>
       <c r="CY2" s="8">
-        <v>272634125225.1991</v>
+        <v>4.6754727748695604E-90</v>
       </c>
       <c r="CZ2" s="8">
-        <v>231829959904.3674</v>
+        <v>1.3415164505930161E-91</v>
       </c>
       <c r="DA2" s="8">
-        <v>196878565532.14059</v>
+        <v>3.8128942723873272E-93</v>
       </c>
       <c r="DB2" s="8">
-        <v>166980695585.74561</v>
+        <v>1.0735977233895669E-94</v>
       </c>
       <c r="DC2" s="8">
-        <v>141440076920.41599</v>
+        <v>2.9949907197722181E-96</v>
       </c>
       <c r="DD2" s="8">
-        <v>119651056879.17191</v>
+        <v>8.2785591338679917E-98</v>
       </c>
       <c r="DE2" s="8">
-        <v>101087601732.55769</v>
+        <v>2.2675506323846571E-99</v>
       </c>
       <c r="DF2" s="8">
-        <v>85293516596.008362</v>
+        <v>6.1551564515478452E-101</v>
       </c>
       <c r="DG2" s="8">
-        <v>71873767052.798447</v>
+        <v>1.6559121676039579E-102</v>
       </c>
       <c r="DH2" s="8">
-        <v>60486792324.78727</v>
+        <v>4.4155741151264608E-104</v>
       </c>
       <c r="DI2" s="8">
-        <v>50837708958.125572</v>
+        <v>1.167141978786004E-105</v>
       </c>
       <c r="DJ2" s="8">
-        <v>42672312612.085831</v>
+        <v>3.0583075908131838E-107</v>
       </c>
       <c r="DK2" s="8">
-        <v>35771793648.962807</v>
+        <v>7.9449895415698316E-109</v>
       </c>
       <c r="DL2" s="8">
-        <v>29948089820.70438</v>
+        <v>2.0464132476835431E-110</v>
       </c>
       <c r="DM2" s="8">
-        <v>25039806438.276611</v>
+        <v>5.2265338367871609E-112</v>
       </c>
       <c r="DN2" s="8">
-        <v>20908641002.098</v>
+        <v>1.323691059137627E-113</v>
       </c>
       <c r="DO2" s="8">
-        <v>17436255379.393311</v>
+        <v>3.324630821244633E-115</v>
       </c>
       <c r="DP2" s="8">
-        <v>14521544253.360571</v>
+        <v>8.2816160799008582E-117</v>
       </c>
       <c r="DQ2" s="8">
-        <v>12078253758.432489</v>
+        <v>2.0461245900296702E-118</v>
       </c>
       <c r="DR2" s="8">
-        <v>10032908976.313379</v>
+        <v>5.0144615665566459E-120</v>
       </c>
       <c r="DS2" s="8">
-        <v>8323013320.9307089</v>
+        <v>1.219049211198382E-121</v>
       </c>
       <c r="DT2" s="8">
-        <v>6895486809.8443012</v>
+        <v>2.940030505657455E-123</v>
       </c>
       <c r="DU2" s="8">
-        <v>5705313828.4015141</v>
+        <v>7.034684217409387E-125</v>
       </c>
       <c r="DV2" s="8">
-        <v>4714374264.5022125</v>
+        <v>1.6700427835080789E-126</v>
       </c>
       <c r="DW2" s="8">
-        <v>3890434849.5800471</v>
+        <v>3.9339461532133282E-128</v>
       </c>
       <c r="DX2" s="8">
-        <v>3206280208.2248888</v>
+        <v>9.1954760830639742E-130</v>
       </c>
       <c r="DY2" s="8">
-        <v>2638965517.0497332</v>
+        <v>2.1330044806141809E-131</v>
       </c>
       <c r="DZ2" s="8">
-        <v>2169174824.4503689</v>
+        <v>4.9102927960461749E-133</v>
       </c>
       <c r="EA2" s="8">
-        <v>1780671007.4086471</v>
+        <v>1.121881567238211E-134</v>
       </c>
       <c r="EB2" s="8">
-        <v>1459825059.0408709</v>
+        <v>2.5441116692241111E-136</v>
       </c>
       <c r="EC2" s="8">
-        <v>1195213929.7123101</v>
+        <v>5.7266416635851285E-138</v>
       </c>
       <c r="ED2" s="8">
-        <v>977277502.64051747</v>
+        <v>1.279567785422816E-139</v>
       </c>
       <c r="EE2" s="8">
-        <v>798026488.27804828</v>
+        <v>2.8382486330310422E-141</v>
       </c>
       <c r="EF2" s="8">
-        <v>650794085.55417979</v>
+        <v>6.2500784243347136E-143</v>
       </c>
       <c r="EG2" s="8">
-        <v>530025196.30473071</v>
+        <v>1.3664447366492901E-144</v>
       </c>
       <c r="EH2" s="8">
-        <v>431097804.87751311</v>
+        <v>2.9661533087689291E-146</v>
       </c>
       <c r="EI2" s="8">
-        <v>350171859.8622517</v>
+        <v>6.3931226466908793E-148</v>
       </c>
       <c r="EJ2" s="8">
-        <v>284061630.04000151</v>
+        <v>1.368273985956708E-149</v>
       </c>
       <c r="EK2" s="8">
-        <v>230128061.8971467</v>
+        <v>2.908011001349527E-151</v>
       </c>
       <c r="EL2" s="8">
-        <v>186188150.41137809</v>
+        <v>6.1376764906164262E-153</v>
       </c>
       <c r="EM2" s="8">
-        <v>150438756.4449724</v>
+        <v>1.286526207504212E-154</v>
       </c>
       <c r="EN2" s="8">
-        <v>121392670.328697</v>
+        <v>2.67831341040983E-156</v>
       </c>
       <c r="EO2" s="8">
-        <v>97825038.700550348</v>
+        <v>5.5380055932930673E-158</v>
       </c>
       <c r="EP2" s="8">
-        <v>78728546.304170296</v>
+        <v>1.137405831637747E-159</v>
       </c>
       <c r="EQ2" s="8">
-        <v>63275981.548555993</v>
+        <v>2.3204281367124759E-161</v>
       </c>
       <c r="ER2" s="8">
-        <v>50789018.902300842</v>
+        <v>4.7025310638156199E-163</v>
       </c>
       <c r="ES2" s="8">
-        <v>40712226.833901048</v>
+        <v>9.4672990013999803E-165</v>
       </c>
       <c r="ET2" s="8">
-        <v>32591460.728412502</v>
+        <v>1.89352528287485E-166</v>
       </c>
       <c r="EU2" s="8">
-        <v>26055929.290552121</v>
+        <v>3.7625837808500481E-168</v>
       </c>
       <c r="EV2" s="8">
-        <v>20803333.275853589</v>
+        <v>7.4283183815553401E-170</v>
       </c>
       <c r="EW2" s="8">
-        <v>16587569.514798131</v>
+        <v>1.457145941492606E-171</v>
       </c>
       <c r="EX2" s="8">
-        <v>13208573.336312549</v>
+        <v>2.8401580414190339E-173</v>
       </c>
       <c r="EY2" s="8">
-        <v>10503940.603096221</v>
+        <v>5.5008187945716365E-175</v>
       </c>
       <c r="EZ2" s="8">
-        <v>8342028.3393721543</v>
+        <v>1.05870696177537E-176</v>
       </c>
       <c r="FA2" s="8">
-        <v>6616281.8385672737</v>
+        <v>2.024910286179369E-178</v>
       </c>
       <c r="FB2" s="8">
-        <v>5240577.4656995963</v>
+        <v>3.8488869215219818E-180</v>
       </c>
       <c r="FC2" s="8">
-        <v>4145405.226477717</v>
+        <v>7.2707866394196468E-182</v>
       </c>
       <c r="FD2" s="8">
-        <v>3274744.5207449859</v>
+        <v>1.365091766357694E-183</v>
       </c>
       <c r="FE2" s="8">
-        <v>2583511.157894623</v>
+        <v>2.5473791539781698E-185</v>
       </c>
       <c r="FF2" s="8">
-        <v>2035474.3964313171</v>
+        <v>4.7249097406601121E-187</v>
       </c>
       <c r="FG2" s="8">
-        <v>1601560.0882267831</v>
+        <v>8.7112063891169953E-189</v>
       </c>
       <c r="FH2" s="8">
-        <v>1258470.4817308071</v>
+        <v>1.5964834606143811E-190</v>
       </c>
       <c r="FI2" s="8">
-        <v>987563.3128958412</v>
+        <v>2.908493850482978E-192</v>
       </c>
       <c r="FJ2" s="8">
-        <v>773942.86747794144</v>
+        <v>5.2675122837639769E-194</v>
       </c>
       <c r="FK2" s="8">
-        <v>605724.05653510801</v>
+        <v>9.484021426449665E-196</v>
       </c>
       <c r="FL2" s="8">
-        <v>473437.48232911702</v>
+        <v>1.69763667632418E-197</v>
       </c>
       <c r="FM2" s="8">
-        <v>369549.21645842399</v>
+        <v>3.021187852881033E-199</v>
       </c>
       <c r="FN2" s="8">
-        <v>288073.76197223022</v>
+        <v>5.3457271596641813E-201</v>
       </c>
       <c r="FO2" s="8">
-        <v>224262.59178637099</v>
+        <v>9.4047459261684091E-203</v>
       </c>
       <c r="FP2" s="8">
-        <v>174353.88609553379</v>
+        <v>1.64518040543256E-204</v>
       </c>
       <c r="FQ2" s="8">
-        <v>135371.74852951639</v>
+        <v>2.8616792949467103E-206</v>
       </c>
       <c r="FR2" s="8">
-        <v>104965.36249940049</v>
+        <v>4.9497582106733934E-208</v>
       </c>
       <c r="FS2" s="8">
-        <v>81280.337473614942</v>
+        <v>8.5136746381625624E-210</v>
       </c>
       <c r="FT2" s="8">
-        <v>62855.958232602243</v>
+        <v>1.4562449732358E-211</v>
       </c>
       <c r="FU2" s="8">
-        <v>48543.245482591417</v>
+        <v>2.4771384374180929E-213</v>
       </c>
       <c r="FV2" s="8">
-        <v>37439.710972166882</v>
+        <v>4.1906223912033968E-215</v>
       </c>
       <c r="FW2" s="8">
-        <v>28837.483798355821</v>
+        <v>7.0507123692671557E-217</v>
       </c>
       <c r="FX2" s="8">
-        <v>22182.129507746369</v>
+        <v>1.1798514678566411E-218</v>
       </c>
       <c r="FY2" s="8">
-        <v>17040.00684313981</v>
+        <v>1.963699575668167E-220</v>
       </c>
       <c r="FZ2" s="8">
-        <v>13072.430797768789</v>
+        <v>3.2507942010710791E-222</v>
       </c>
       <c r="GA2" s="8">
-        <v>10015.25333590284</v>
+        <v>5.3528346917471465E-224</v>
       </c>
       <c r="GB2" s="8">
-        <v>7662.7497808492626</v>
+        <v>8.7674070752005264E-226</v>
       </c>
       <c r="GC2" s="8">
-        <v>5854.9218169643163</v>
+        <v>1.4284479299856781E-227</v>
       </c>
       <c r="GD2" s="8">
-        <v>4467.5074230747396</v>
+        <v>2.3151350871864291E-229</v>
       </c>
       <c r="GE2" s="8">
-        <v>3404.132125383479</v>
+        <v>3.7326698680077078E-231</v>
       </c>
       <c r="GF2" s="8">
-        <v>2590.1514805707038</v>
+        <v>5.9869640589474376E-233</v>
       </c>
       <c r="GG2" s="8">
-        <v>1967.8271737113789</v>
+        <v>9.5532230825458922E-235</v>
       </c>
       <c r="GH2" s="8">
-        <v>1492.553011298201</v>
+        <v>1.5165670884084429E-236</v>
       </c>
       <c r="GI2" s="8">
-        <v>1129.9060342168709</v>
+        <v>2.3952667512853919E-238</v>
       </c>
       <c r="GJ2" s="8">
-        <v>853.34490597354022</v>
+        <v>3.7639052468025552E-240</v>
       </c>
       <c r="GK2" s="8">
-        <v>642.41502101892991</v>
+        <v>5.8847480634556733E-242</v>
       </c>
       <c r="GL2" s="8">
-        <v>481.34933989619662</v>
+        <v>9.1544699130908424E-244</v>
       </c>
       <c r="GM2" s="8">
-        <v>357.97733063833152</v>
+        <v>1.41698834827537E-245</v>
       </c>
       <c r="GN2" s="8">
-        <v>262.87281270486449</v>
+        <v>2.1824213617998541E-247</v>
       </c>
       <c r="GO2" s="8">
-        <v>188.68594573642901</v>
+        <v>3.3447337745911629E-249</v>
       </c>
       <c r="GP2" s="8">
-        <v>129.61586310757491</v>
+        <v>5.1008951681804912E-251</v>
       </c>
       <c r="GQ2" s="8">
-        <v>80.989136998420648</v>
+        <v>7.7411281954284299E-253</v>
       </c>
       <c r="GR2" s="8">
-        <v>38.915859226479853</v>
+        <v>1.1688226175171459E-254</v>
       </c>
       <c r="GS2" s="8">
         <v>0</v>
@@ -2271,207 +1987,609 @@
       <c r="MM2" s="2"/>
     </row>
     <row r="3" spans="1:351" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5"/>
-      <c r="CC3" s="5"/>
-      <c r="CD3" s="5"/>
-      <c r="CE3" s="5"/>
-      <c r="CF3" s="5"/>
-      <c r="CG3" s="5"/>
-      <c r="CH3" s="5"/>
-      <c r="CI3" s="5"/>
-      <c r="CJ3" s="5"/>
-      <c r="CK3" s="5"/>
-      <c r="CL3" s="5"/>
-      <c r="CM3" s="5"/>
-      <c r="CN3" s="5"/>
-      <c r="CO3" s="5"/>
-      <c r="CP3" s="5"/>
-      <c r="CQ3" s="5"/>
-      <c r="CR3" s="5"/>
-      <c r="CS3" s="5"/>
-      <c r="CT3" s="5"/>
-      <c r="CU3" s="5"/>
-      <c r="CV3" s="5"/>
-      <c r="CW3" s="5"/>
-      <c r="CX3" s="5"/>
-      <c r="CY3" s="5"/>
-      <c r="CZ3" s="5"/>
-      <c r="DA3" s="5"/>
-      <c r="DB3" s="5"/>
-      <c r="DC3" s="5"/>
-      <c r="DD3" s="5"/>
-      <c r="DE3" s="5"/>
-      <c r="DF3" s="5"/>
-      <c r="DG3" s="5"/>
-      <c r="DH3" s="5"/>
-      <c r="DI3" s="5"/>
-      <c r="DJ3" s="5"/>
-      <c r="DK3" s="5"/>
-      <c r="DL3" s="5"/>
-      <c r="DM3" s="5"/>
-      <c r="DN3" s="5"/>
-      <c r="DO3" s="5"/>
-      <c r="DP3" s="5"/>
-      <c r="DQ3" s="5"/>
-      <c r="DR3" s="5"/>
-      <c r="DS3" s="5"/>
-      <c r="DT3" s="5"/>
-      <c r="DU3" s="5"/>
-      <c r="DV3" s="5"/>
-      <c r="DW3" s="5"/>
-      <c r="DX3" s="5"/>
-      <c r="DY3" s="5"/>
-      <c r="DZ3" s="5"/>
-      <c r="EA3" s="5"/>
-      <c r="EB3" s="5"/>
-      <c r="EC3" s="5"/>
-      <c r="ED3" s="5"/>
-      <c r="EE3" s="5"/>
-      <c r="EF3" s="5"/>
-      <c r="EG3" s="5"/>
-      <c r="EH3" s="5"/>
-      <c r="EI3" s="5"/>
-      <c r="EJ3" s="5"/>
-      <c r="EK3" s="5"/>
-      <c r="EL3" s="5"/>
-      <c r="EM3" s="5"/>
-      <c r="EN3" s="5"/>
-      <c r="EO3" s="5"/>
-      <c r="EP3" s="5"/>
-      <c r="EQ3" s="5"/>
-      <c r="ER3" s="5"/>
-      <c r="ES3" s="5"/>
-      <c r="ET3" s="5"/>
-      <c r="EU3" s="5"/>
-      <c r="EV3" s="5"/>
-      <c r="EW3" s="5"/>
-      <c r="EX3" s="5"/>
-      <c r="EY3" s="5"/>
-      <c r="EZ3" s="5"/>
-      <c r="FA3" s="5"/>
-      <c r="FB3" s="5"/>
-      <c r="FC3" s="5"/>
-      <c r="FD3" s="5"/>
-      <c r="FE3" s="5"/>
-      <c r="FF3" s="5"/>
-      <c r="FG3" s="5"/>
-      <c r="FH3" s="5"/>
-      <c r="FI3" s="5"/>
-      <c r="FJ3" s="5"/>
-      <c r="FK3" s="5"/>
-      <c r="FL3" s="5"/>
-      <c r="FM3" s="5"/>
-      <c r="FN3" s="5"/>
-      <c r="FO3" s="5"/>
-      <c r="FP3" s="5"/>
-      <c r="FQ3" s="5"/>
-      <c r="FR3" s="5"/>
-      <c r="FS3" s="5"/>
-      <c r="FT3" s="5"/>
-      <c r="FU3" s="5"/>
-      <c r="FV3" s="5"/>
-      <c r="FW3" s="5"/>
-      <c r="FX3" s="5"/>
-      <c r="FY3" s="5"/>
-      <c r="FZ3" s="5"/>
-      <c r="GA3" s="5"/>
-      <c r="GB3" s="5"/>
-      <c r="GC3" s="5"/>
-      <c r="GD3" s="5"/>
-      <c r="GE3" s="5"/>
-      <c r="GF3" s="5"/>
-      <c r="GG3" s="5"/>
-      <c r="GH3" s="5"/>
-      <c r="GI3" s="5"/>
-      <c r="GJ3" s="5"/>
-      <c r="GK3" s="5"/>
-      <c r="GL3" s="5"/>
-      <c r="GM3" s="5"/>
-      <c r="GN3" s="5"/>
-      <c r="GO3" s="5"/>
-      <c r="GP3" s="5"/>
-      <c r="GQ3" s="5"/>
-      <c r="GR3" s="5"/>
-      <c r="GS3" s="5"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1.2533575596778871E+28</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.0599925642845519E+28</v>
+      </c>
+      <c r="D3" s="9">
+        <v>8.8693052325431575E+27</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7.339875688460221E+27</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6.005680697466987E+27</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4.8571467815571672E+27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3.8817331678160441E+27</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3.0646758272991978E+27</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2.3897672526947619E+27</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1.840116417845136E+27</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1.398841382333815E+27</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1.049658672505163E+27</v>
+      </c>
+      <c r="N3" s="9">
+        <v>7.7734709856969769E+26</v>
+      </c>
+      <c r="O3" s="9">
+        <v>5.6807727465838498E+26</v>
+      </c>
+      <c r="P3" s="9">
+        <v>4.0961027442595783E+26</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>2.9137849356133761E+26</v>
+      </c>
+      <c r="R3" s="9">
+        <v>2.0446832855071161E+26</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1.415276395675894E+26</v>
+      </c>
+      <c r="T3" s="9">
+        <v>9.6621471343643519E+25</v>
+      </c>
+      <c r="U3" s="9">
+        <v>6.5057759305574958E+25</v>
+      </c>
+      <c r="V3" s="9">
+        <v>4.3201478162872073E+25</v>
+      </c>
+      <c r="W3" s="9">
+        <v>2.829162532849946E+25</v>
+      </c>
+      <c r="X3" s="9">
+        <v>1.827120384331232E+25</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>1.1636456470326271E+25</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>7.3083087628371832E+24</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>4.5264468375853372E+24</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>2.7646971974025782E+24</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>1.665312230028057E+24</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>9.8926572457422545E+23</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>5.7957997552935789E+23</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>3.3489858707243287E+23</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>1.908672871576323E+23</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>1.072972903989015E+23</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>5.9498751245306248E+22</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>3.2547178971167579E+22</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>1.756432486138758E+22</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>9.35168522973986E+21</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>4.9126710044393378E+21</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>2.5465087812579392E+21</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>1.3025782324017559E+21</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>6.5754587925217817E+20</v>
+      </c>
+      <c r="AQ3" s="9">
+        <v>3.2760105686192082E+20</v>
+      </c>
+      <c r="AR3" s="9">
+        <v>1.611000684171379E+20</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>7.8200997853068886E+19</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>3.7474047035330429E+19</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>1.7729104544730069E+19</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>8.2816633793668321E+18</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>3.81997058991057E+18</v>
+      </c>
+      <c r="AX3" s="9">
+        <v>1.7400094628374871E+18</v>
+      </c>
+      <c r="AY3" s="9">
+        <v>7.827627163860663E+17</v>
+      </c>
+      <c r="AZ3" s="9">
+        <v>3.4780324214278093E+17</v>
+      </c>
+      <c r="BA3" s="9">
+        <v>1.5265124185541731E+17</v>
+      </c>
+      <c r="BB3" s="9">
+        <v>6.6186388775347256E+16</v>
+      </c>
+      <c r="BC3" s="9">
+        <v>2.83515744243923E+16</v>
+      </c>
+      <c r="BD3" s="9">
+        <v>1.199953519897378E+16</v>
+      </c>
+      <c r="BE3" s="9">
+        <v>5018443599001181</v>
+      </c>
+      <c r="BF3" s="9">
+        <v>2074099977341372</v>
+      </c>
+      <c r="BG3" s="9">
+        <v>847198046355851.25</v>
+      </c>
+      <c r="BH3" s="9">
+        <v>342037219890483.37</v>
+      </c>
+      <c r="BI3" s="9">
+        <v>136500238081085</v>
+      </c>
+      <c r="BJ3" s="9">
+        <v>53852195167281.258</v>
+      </c>
+      <c r="BK3" s="9">
+        <v>21004946511115.621</v>
+      </c>
+      <c r="BL3" s="9">
+        <v>8100763683134.7852</v>
+      </c>
+      <c r="BM3" s="9">
+        <v>3089259779777.125</v>
+      </c>
+      <c r="BN3" s="9">
+        <v>1165050245517.7881</v>
+      </c>
+      <c r="BO3" s="9">
+        <v>434544344383.57147</v>
+      </c>
+      <c r="BP3" s="9">
+        <v>160309774894.1568</v>
+      </c>
+      <c r="BQ3" s="9">
+        <v>58500470348.915932</v>
+      </c>
+      <c r="BR3" s="9">
+        <v>21118783843.644901</v>
+      </c>
+      <c r="BS3" s="9">
+        <v>7542670302.2130051</v>
+      </c>
+      <c r="BT3" s="9">
+        <v>2665411220.6137042</v>
+      </c>
+      <c r="BU3" s="9">
+        <v>932013318.37385857</v>
+      </c>
+      <c r="BV3" s="9">
+        <v>322503510.90620732</v>
+      </c>
+      <c r="BW3" s="9">
+        <v>110442579.4789197</v>
+      </c>
+      <c r="BX3" s="9">
+        <v>37433758.343149208</v>
+      </c>
+      <c r="BY3" s="9">
+        <v>12558849.069648661</v>
+      </c>
+      <c r="BZ3" s="9">
+        <v>4170903.818721313</v>
+      </c>
+      <c r="CA3" s="9">
+        <v>1371319.0954774299</v>
+      </c>
+      <c r="CB3" s="9">
+        <v>446384.03601438552</v>
+      </c>
+      <c r="CC3" s="9">
+        <v>143871.24838644461</v>
+      </c>
+      <c r="CD3" s="9">
+        <v>45916.38760730678</v>
+      </c>
+      <c r="CE3" s="9">
+        <v>14511.842215368461</v>
+      </c>
+      <c r="CF3" s="9">
+        <v>4542.249385179085</v>
+      </c>
+      <c r="CG3" s="9">
+        <v>1408.137692843957</v>
+      </c>
+      <c r="CH3" s="9">
+        <v>432.39114655263302</v>
+      </c>
+      <c r="CI3" s="9">
+        <v>131.52171083840409</v>
+      </c>
+      <c r="CJ3" s="9">
+        <v>39.63129192425297</v>
+      </c>
+      <c r="CK3" s="9">
+        <v>11.831231173132331</v>
+      </c>
+      <c r="CL3" s="9">
+        <v>3.4994763020945672</v>
+      </c>
+      <c r="CM3" s="9">
+        <v>1.0256229445073739</v>
+      </c>
+      <c r="CN3" s="9">
+        <v>0.29786109004720401</v>
+      </c>
+      <c r="CO3" s="9">
+        <v>8.5725631226978183E-2</v>
+      </c>
+      <c r="CP3" s="9">
+        <v>2.4451620730442311E-2</v>
+      </c>
+      <c r="CQ3" s="9">
+        <v>6.9124738498370399E-3</v>
+      </c>
+      <c r="CR3" s="9">
+        <v>1.936942697388002E-3</v>
+      </c>
+      <c r="CS3" s="9">
+        <v>5.3800421308433015E-4</v>
+      </c>
+      <c r="CT3" s="9">
+        <v>1.4813855683637369E-4</v>
+      </c>
+      <c r="CU3" s="9">
+        <v>4.0438184995234458E-5</v>
+      </c>
+      <c r="CV3" s="9">
+        <v>1.094418903175574E-5</v>
+      </c>
+      <c r="CW3" s="9">
+        <v>2.9367763094829671E-6</v>
+      </c>
+      <c r="CX3" s="9">
+        <v>7.8141215566188329E-7</v>
+      </c>
+      <c r="CY3" s="9">
+        <v>2.061758666768041E-7</v>
+      </c>
+      <c r="CZ3" s="9">
+        <v>5.3947326392562182E-8</v>
+      </c>
+      <c r="DA3" s="9">
+        <v>1.3999167780631209E-8</v>
+      </c>
+      <c r="DB3" s="9">
+        <v>3.602966112228831E-9</v>
+      </c>
+      <c r="DC3" s="9">
+        <v>9.1974827832921174E-10</v>
+      </c>
+      <c r="DD3" s="9">
+        <v>2.328914428588225E-10</v>
+      </c>
+      <c r="DE3" s="9">
+        <v>5.8497651669227837E-11</v>
+      </c>
+      <c r="DF3" s="9">
+        <v>1.4576324085194611E-11</v>
+      </c>
+      <c r="DG3" s="9">
+        <v>3.6033490666289131E-12</v>
+      </c>
+      <c r="DH3" s="9">
+        <v>8.8376575831802277E-13</v>
+      </c>
+      <c r="DI3" s="9">
+        <v>2.1506217311041579E-13</v>
+      </c>
+      <c r="DJ3" s="9">
+        <v>5.1929023241458943E-14</v>
+      </c>
+      <c r="DK3" s="9">
+        <v>1.244223842544169E-14</v>
+      </c>
+      <c r="DL3" s="9">
+        <v>2.958365586761767E-15</v>
+      </c>
+      <c r="DM3" s="9">
+        <v>6.9805972120796614E-16</v>
+      </c>
+      <c r="DN3" s="9">
+        <v>1.6347183407172111E-16</v>
+      </c>
+      <c r="DO3" s="9">
+        <v>3.799486108336683E-17</v>
+      </c>
+      <c r="DP3" s="9">
+        <v>8.7651642846031135E-18</v>
+      </c>
+      <c r="DQ3" s="9">
+        <v>2.0071045352746311E-18</v>
+      </c>
+      <c r="DR3" s="9">
+        <v>4.5622163155317208E-19</v>
+      </c>
+      <c r="DS3" s="9">
+        <v>1.029434411878379E-19</v>
+      </c>
+      <c r="DT3" s="9">
+        <v>2.3059992415170129E-20</v>
+      </c>
+      <c r="DU3" s="9">
+        <v>5.1283519048543468E-21</v>
+      </c>
+      <c r="DV3" s="9">
+        <v>1.132335017064411E-21</v>
+      </c>
+      <c r="DW3" s="9">
+        <v>2.4823931976686838E-22</v>
+      </c>
+      <c r="DX3" s="9">
+        <v>5.4036169267238965E-23</v>
+      </c>
+      <c r="DY3" s="9">
+        <v>1.167982918743409E-23</v>
+      </c>
+      <c r="DZ3" s="9">
+        <v>2.5069506218349789E-24</v>
+      </c>
+      <c r="EA3" s="9">
+        <v>5.343571168445754E-25</v>
+      </c>
+      <c r="EB3" s="9">
+        <v>1.1311310204884879E-25</v>
+      </c>
+      <c r="EC3" s="9">
+        <v>2.3779815639499981E-26</v>
+      </c>
+      <c r="ED3" s="9">
+        <v>4.965201322779218E-27</v>
+      </c>
+      <c r="EE3" s="9">
+        <v>1.0297134846347309E-27</v>
+      </c>
+      <c r="EF3" s="9">
+        <v>2.1211200344838371E-28</v>
+      </c>
+      <c r="EG3" s="9">
+        <v>4.3401161508084897E-29</v>
+      </c>
+      <c r="EH3" s="9">
+        <v>8.8215007713279065E-30</v>
+      </c>
+      <c r="EI3" s="9">
+        <v>1.781173329525593E-30</v>
+      </c>
+      <c r="EJ3" s="9">
+        <v>3.5728094096183441E-31</v>
+      </c>
+      <c r="EK3" s="9">
+        <v>7.1198470331142644E-32</v>
+      </c>
+      <c r="EL3" s="9">
+        <v>1.409631606579246E-32</v>
+      </c>
+      <c r="EM3" s="9">
+        <v>2.7728831556410048E-33</v>
+      </c>
+      <c r="EN3" s="9">
+        <v>5.4195737258756298E-34</v>
+      </c>
+      <c r="EO3" s="9">
+        <v>1.05250161944078E-34</v>
+      </c>
+      <c r="EP3" s="9">
+        <v>2.031050837943352E-35</v>
+      </c>
+      <c r="EQ3" s="9">
+        <v>3.8947116795915022E-36</v>
+      </c>
+      <c r="ER3" s="9">
+        <v>7.4216809390902637E-37</v>
+      </c>
+      <c r="ES3" s="9">
+        <v>1.4054567264217551E-37</v>
+      </c>
+      <c r="ET3" s="9">
+        <v>2.6450660821079977E-38</v>
+      </c>
+      <c r="EU3" s="9">
+        <v>4.9473755689677959E-39</v>
+      </c>
+      <c r="EV3" s="9">
+        <v>9.1970348916132343E-40</v>
+      </c>
+      <c r="EW3" s="9">
+        <v>1.69930183087054E-40</v>
+      </c>
+      <c r="EX3" s="9">
+        <v>3.1207424925483579E-41</v>
+      </c>
+      <c r="EY3" s="9">
+        <v>5.6967201847633167E-42</v>
+      </c>
+      <c r="EZ3" s="9">
+        <v>1.0336798748052531E-42</v>
+      </c>
+      <c r="FA3" s="9">
+        <v>1.8644724818732039E-43</v>
+      </c>
+      <c r="FB3" s="9">
+        <v>3.343097295670867E-44</v>
+      </c>
+      <c r="FC3" s="9">
+        <v>5.9590826267709121E-45</v>
+      </c>
+      <c r="FD3" s="9">
+        <v>1.0559934842805879E-45</v>
+      </c>
+      <c r="FE3" s="9">
+        <v>1.8604091024741129E-46</v>
+      </c>
+      <c r="FF3" s="9">
+        <v>3.2586285988870401E-47</v>
+      </c>
+      <c r="FG3" s="9">
+        <v>5.6748466899216171E-48</v>
+      </c>
+      <c r="FH3" s="9">
+        <v>9.8260686252054891E-49</v>
+      </c>
+      <c r="FI3" s="9">
+        <v>1.6917073687378999E-49</v>
+      </c>
+      <c r="FJ3" s="9">
+        <v>2.8960345735427E-50</v>
+      </c>
+      <c r="FK3" s="9">
+        <v>4.9297901266046602E-51</v>
+      </c>
+      <c r="FL3" s="9">
+        <v>8.3447304212847133E-52</v>
+      </c>
+      <c r="FM3" s="9">
+        <v>1.4046504468716021E-52</v>
+      </c>
+      <c r="FN3" s="9">
+        <v>2.35130536162363E-53</v>
+      </c>
+      <c r="FO3" s="9">
+        <v>3.9142382532630812E-54</v>
+      </c>
+      <c r="FP3" s="9">
+        <v>6.4803048390395157E-55</v>
+      </c>
+      <c r="FQ3" s="9">
+        <v>1.067003776517986E-55</v>
+      </c>
+      <c r="FR3" s="9">
+        <v>1.7473145168810899E-56</v>
+      </c>
+      <c r="FS3" s="9">
+        <v>2.8459218522533222E-57</v>
+      </c>
+      <c r="FT3" s="9">
+        <v>4.6103473324367531E-58</v>
+      </c>
+      <c r="FU3" s="9">
+        <v>7.4287377722940953E-59</v>
+      </c>
+      <c r="FV3" s="9">
+        <v>1.1906357684858279E-59</v>
+      </c>
+      <c r="FW3" s="9">
+        <v>1.8981784128241239E-60</v>
+      </c>
+      <c r="FX3" s="9">
+        <v>3.0102386454809549E-61</v>
+      </c>
+      <c r="FY3" s="9">
+        <v>4.7487804523685732E-62</v>
+      </c>
+      <c r="FZ3" s="9">
+        <v>7.4523268187351191E-63</v>
+      </c>
+      <c r="GA3" s="9">
+        <v>1.163433573902422E-63</v>
+      </c>
+      <c r="GB3" s="9">
+        <v>1.8069342486759131E-64</v>
+      </c>
+      <c r="GC3" s="9">
+        <v>2.7919344627120141E-65</v>
+      </c>
+      <c r="GD3" s="9">
+        <v>4.2918166052918568E-66</v>
+      </c>
+      <c r="GE3" s="9">
+        <v>6.5638857230516824E-67</v>
+      </c>
+      <c r="GF3" s="9">
+        <v>9.9879311634178846E-68</v>
+      </c>
+      <c r="GG3" s="9">
+        <v>1.51215182983446E-68</v>
+      </c>
+      <c r="GH3" s="9">
+        <v>2.2778816040975041E-69</v>
+      </c>
+      <c r="GI3" s="9">
+        <v>3.4142337303825522E-70</v>
+      </c>
+      <c r="GJ3" s="9">
+        <v>5.0920431248541203E-71</v>
+      </c>
+      <c r="GK3" s="9">
+        <v>7.5567994685733355E-72</v>
+      </c>
+      <c r="GL3" s="9">
+        <v>1.11594016110339E-72</v>
+      </c>
+      <c r="GM3" s="9">
+        <v>1.639876705867478E-73</v>
+      </c>
+      <c r="GN3" s="9">
+        <v>2.398052954606318E-74</v>
+      </c>
+      <c r="GO3" s="9">
+        <v>3.4897432147741658E-75</v>
+      </c>
+      <c r="GP3" s="9">
+        <v>5.0538427581549841E-76</v>
+      </c>
+      <c r="GQ3" s="9">
+        <v>7.2809029292525023E-77</v>
+      </c>
+      <c r="GR3" s="9">
+        <v>1.0235764710309951E-77</v>
+      </c>
+      <c r="GS3" s="9">
+        <v>0</v>
+      </c>
       <c r="GT3" s="5"/>
       <c r="GU3" s="5"/>
       <c r="GV3" s="5"/>
@@ -2624,207 +2742,609 @@
       <c r="MM3" s="5"/>
     </row>
     <row r="4" spans="1:351" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="6"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="6"/>
-      <c r="BP4" s="6"/>
-      <c r="BQ4" s="6"/>
-      <c r="BR4" s="6"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
-      <c r="BY4" s="6"/>
-      <c r="BZ4" s="6"/>
-      <c r="CA4" s="6"/>
-      <c r="CB4" s="6"/>
-      <c r="CC4" s="6"/>
-      <c r="CD4" s="6"/>
-      <c r="CE4" s="6"/>
-      <c r="CF4" s="6"/>
-      <c r="CG4" s="6"/>
-      <c r="CH4" s="6"/>
-      <c r="CI4" s="6"/>
-      <c r="CJ4" s="6"/>
-      <c r="CK4" s="6"/>
-      <c r="CL4" s="6"/>
-      <c r="CM4" s="6"/>
-      <c r="CN4" s="6"/>
-      <c r="CO4" s="6"/>
-      <c r="CP4" s="6"/>
-      <c r="CQ4" s="6"/>
-      <c r="CR4" s="6"/>
-      <c r="CS4" s="6"/>
-      <c r="CT4" s="6"/>
-      <c r="CU4" s="6"/>
-      <c r="CV4" s="6"/>
-      <c r="CW4" s="6"/>
-      <c r="CX4" s="6"/>
-      <c r="CY4" s="6"/>
-      <c r="CZ4" s="6"/>
-      <c r="DA4" s="6"/>
-      <c r="DB4" s="6"/>
-      <c r="DC4" s="6"/>
-      <c r="DD4" s="6"/>
-      <c r="DE4" s="6"/>
-      <c r="DF4" s="6"/>
-      <c r="DG4" s="6"/>
-      <c r="DH4" s="6"/>
-      <c r="DI4" s="6"/>
-      <c r="DJ4" s="6"/>
-      <c r="DK4" s="6"/>
-      <c r="DL4" s="6"/>
-      <c r="DM4" s="6"/>
-      <c r="DN4" s="6"/>
-      <c r="DO4" s="6"/>
-      <c r="DP4" s="6"/>
-      <c r="DQ4" s="6"/>
-      <c r="DR4" s="6"/>
-      <c r="DS4" s="6"/>
-      <c r="DT4" s="6"/>
-      <c r="DU4" s="6"/>
-      <c r="DV4" s="6"/>
-      <c r="DW4" s="6"/>
-      <c r="DX4" s="6"/>
-      <c r="DY4" s="6"/>
-      <c r="DZ4" s="6"/>
-      <c r="EA4" s="6"/>
-      <c r="EB4" s="6"/>
-      <c r="EC4" s="6"/>
-      <c r="ED4" s="6"/>
-      <c r="EE4" s="6"/>
-      <c r="EF4" s="6"/>
-      <c r="EG4" s="6"/>
-      <c r="EH4" s="6"/>
-      <c r="EI4" s="6"/>
-      <c r="EJ4" s="6"/>
-      <c r="EK4" s="6"/>
-      <c r="EL4" s="6"/>
-      <c r="EM4" s="6"/>
-      <c r="EN4" s="6"/>
-      <c r="EO4" s="6"/>
-      <c r="EP4" s="6"/>
-      <c r="EQ4" s="6"/>
-      <c r="ER4" s="6"/>
-      <c r="ES4" s="6"/>
-      <c r="ET4" s="6"/>
-      <c r="EU4" s="6"/>
-      <c r="EV4" s="6"/>
-      <c r="EW4" s="6"/>
-      <c r="EX4" s="6"/>
-      <c r="EY4" s="6"/>
-      <c r="EZ4" s="6"/>
-      <c r="FA4" s="6"/>
-      <c r="FB4" s="6"/>
-      <c r="FC4" s="6"/>
-      <c r="FD4" s="6"/>
-      <c r="FE4" s="6"/>
-      <c r="FF4" s="6"/>
-      <c r="FG4" s="6"/>
-      <c r="FH4" s="6"/>
-      <c r="FI4" s="6"/>
-      <c r="FJ4" s="6"/>
-      <c r="FK4" s="6"/>
-      <c r="FL4" s="6"/>
-      <c r="FM4" s="6"/>
-      <c r="FN4" s="6"/>
-      <c r="FO4" s="6"/>
-      <c r="FP4" s="6"/>
-      <c r="FQ4" s="6"/>
-      <c r="FR4" s="6"/>
-      <c r="FS4" s="6"/>
-      <c r="FT4" s="6"/>
-      <c r="FU4" s="6"/>
-      <c r="FV4" s="6"/>
-      <c r="FW4" s="6"/>
-      <c r="FX4" s="6"/>
-      <c r="FY4" s="6"/>
-      <c r="FZ4" s="6"/>
-      <c r="GA4" s="6"/>
-      <c r="GB4" s="6"/>
-      <c r="GC4" s="6"/>
-      <c r="GD4" s="6"/>
-      <c r="GE4" s="6"/>
-      <c r="GF4" s="6"/>
-      <c r="GG4" s="6"/>
-      <c r="GH4" s="6"/>
-      <c r="GI4" s="6"/>
-      <c r="GJ4" s="6"/>
-      <c r="GK4" s="6"/>
-      <c r="GL4" s="6"/>
-      <c r="GM4" s="6"/>
-      <c r="GN4" s="6"/>
-      <c r="GO4" s="6"/>
-      <c r="GP4" s="6"/>
-      <c r="GQ4" s="6"/>
-      <c r="GR4" s="6"/>
-      <c r="GS4" s="6"/>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.019914960129743E+28</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.8428884425663789E+28</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.675393508274778E+28</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.5175969762461809E+28</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1.3695844301669609E+28</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.2313617946951041E+28</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1.1028582853762099E+28</v>
+      </c>
+      <c r="I4" s="10">
+        <v>9.8393061980275918E+27</v>
+      </c>
+      <c r="J4" s="10">
+        <v>8.7436834511569652E+27</v>
+      </c>
+      <c r="K4" s="10">
+        <v>7.7390011052644247E+27</v>
+      </c>
+      <c r="L4" s="10">
+        <v>6.8220069402521799E+27</v>
+      </c>
+      <c r="M4" s="10">
+        <v>5.9889858032187598E+27</v>
+      </c>
+      <c r="N4" s="10">
+        <v>5.2358388246511426E+27</v>
+      </c>
+      <c r="O4" s="10">
+        <v>4.5581640228772018E+27</v>
+      </c>
+      <c r="P4" s="10">
+        <v>3.9513363429602242E+27</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>3.4105853305718719E+27</v>
+      </c>
+      <c r="R4" s="10">
+        <v>2.9310688452012692E+27</v>
+      </c>
+      <c r="S4" s="10">
+        <v>2.5079414586978272E+27</v>
+      </c>
+      <c r="T4" s="10">
+        <v>2.1364164521576719E+27</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1.8118206040027301E+27</v>
+      </c>
+      <c r="V4" s="10">
+        <v>1.5296412427491761E+27</v>
+      </c>
+      <c r="W4" s="10">
+        <v>1.2855653084748611E+27</v>
+      </c>
+      <c r="X4" s="10">
+        <v>1.075510417945803E+27</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>8.9564815215348586E+26</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>7.4241997605689102E+26</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>6.1254635509281612E+26</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>5.0302974998537317E+26</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>4.1115225085360537E+26</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>3.344686554744397E+26</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>2.707958079830249E+26</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>2.1819899742078351E+26</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>1.7497617513438858E+26</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>1.396406911530542E+26</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>1.1090317740939071E+26</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>8.7653124873241637E+25</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>6.8940616766289764E+25</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>5.3958594879770974E+25</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>4.2025953837282248E+25</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>3.2571681446616688E+25</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>2.5120193899350629E+25</v>
+      </c>
+      <c r="AP4" s="10">
+        <v>1.927795368797463E+25</v>
+      </c>
+      <c r="AQ4" s="10">
+        <v>1.472140632023995E+25</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>1.1186229324290321E+25</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>8.4578533571581687E+24</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>6.3631898456482591E+24</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>4.7634816779919971E+24</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>3.5481820693834139E+24</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2.629760826848516E+24</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>1.9393358209737239E+24</v>
+      </c>
+      <c r="AY4" s="10">
+        <v>1.423029562553933E+24</v>
+      </c>
+      <c r="AZ4" s="10">
+        <v>1.0389554903949439E+24</v>
+      </c>
+      <c r="BA4" s="10">
+        <v>7.547451138998771E+23</v>
+      </c>
+      <c r="BB4" s="10">
+        <v>5.4553484630734422E+23</v>
+      </c>
+      <c r="BC4" s="10">
+        <v>3.9233965432366213E+23</v>
+      </c>
+      <c r="BD4" s="10">
+        <v>2.80749093843178E+23</v>
+      </c>
+      <c r="BE4" s="10">
+        <v>1.9988956124419769E+23</v>
+      </c>
+      <c r="BF4" s="10">
+        <v>1.4160442098217329E+23</v>
+      </c>
+      <c r="BG4" s="10">
+        <v>9.9810909096074742E+22</v>
+      </c>
+      <c r="BH4" s="10">
+        <v>6.9999261859421148E+22</v>
+      </c>
+      <c r="BI4" s="10">
+        <v>4.8845335601726607E+22</v>
+      </c>
+      <c r="BJ4" s="10">
+        <v>3.3913065077972742E+22</v>
+      </c>
+      <c r="BK4" s="10">
+        <v>2.34274808817592E+22</v>
+      </c>
+      <c r="BL4" s="10">
+        <v>1.61027188281247E+22</v>
+      </c>
+      <c r="BM4" s="10">
+        <v>1.1012566030565E+22</v>
+      </c>
+      <c r="BN4" s="10">
+        <v>7.4936659145671941E+21</v>
+      </c>
+      <c r="BO4" s="10">
+        <v>5.0736155617964369E+21</v>
+      </c>
+      <c r="BP4" s="10">
+        <v>3.4178996166083242E+21</v>
+      </c>
+      <c r="BQ4" s="10">
+        <v>2.2909773744434609E+21</v>
+      </c>
+      <c r="BR4" s="10">
+        <v>1.52792986087561E+21</v>
+      </c>
+      <c r="BS4" s="10">
+        <v>1.013931613321144E+21</v>
+      </c>
+      <c r="BT4" s="10">
+        <v>6.6948087012390758E+20</v>
+      </c>
+      <c r="BU4" s="10">
+        <v>4.3983896681695438E+20</v>
+      </c>
+      <c r="BV4" s="10">
+        <v>2.875260095387264E+20</v>
+      </c>
+      <c r="BW4" s="10">
+        <v>1.8702104297448201E+20</v>
+      </c>
+      <c r="BX4" s="10">
+        <v>1.210419265399712E+20</v>
+      </c>
+      <c r="BY4" s="10">
+        <v>7.7949873941028848E+19</v>
+      </c>
+      <c r="BZ4" s="10">
+        <v>4.9949549055172723E+19</v>
+      </c>
+      <c r="CA4" s="10">
+        <v>3.184833417971651E+19</v>
+      </c>
+      <c r="CB4" s="10">
+        <v>2.0206141795375571E+19</v>
+      </c>
+      <c r="CC4" s="10">
+        <v>1.275628523089586E+19</v>
+      </c>
+      <c r="CD4" s="10">
+        <v>8.0133094766070088E+18</v>
+      </c>
+      <c r="CE4" s="10">
+        <v>5.0089798763421225E+18</v>
+      </c>
+      <c r="CF4" s="10">
+        <v>3.1155823169207572E+18</v>
+      </c>
+      <c r="CG4" s="10">
+        <v>1.9283449490751921E+18</v>
+      </c>
+      <c r="CH4" s="10">
+        <v>1.1876509764245681E+18</v>
+      </c>
+      <c r="CI4" s="10">
+        <v>7.278714506655369E+17</v>
+      </c>
+      <c r="CJ4" s="10">
+        <v>4.4390036769191968E+17</v>
+      </c>
+      <c r="CK4" s="10">
+        <v>2.693919265450681E+17</v>
+      </c>
+      <c r="CL4" s="10">
+        <v>1.6268790184137139E+17</v>
+      </c>
+      <c r="CM4" s="10">
+        <v>9.7768956079463984E+16</v>
+      </c>
+      <c r="CN4" s="10">
+        <v>5.8468941178267456E+16</v>
+      </c>
+      <c r="CO4" s="10">
+        <v>3.47961800149056E+16</v>
+      </c>
+      <c r="CP4" s="10">
+        <v>2.060741970955906E+16</v>
+      </c>
+      <c r="CQ4" s="10">
+        <v>1.214521061205957E+16</v>
+      </c>
+      <c r="CR4" s="10">
+        <v>7123273297764420</v>
+      </c>
+      <c r="CS4" s="10">
+        <v>4157680176666882</v>
+      </c>
+      <c r="CT4" s="10">
+        <v>2415034342448071</v>
+      </c>
+      <c r="CU4" s="10">
+        <v>1396047518022337</v>
+      </c>
+      <c r="CV4" s="10">
+        <v>803129717389784</v>
+      </c>
+      <c r="CW4" s="10">
+        <v>459815695674808.19</v>
+      </c>
+      <c r="CX4" s="10">
+        <v>261998334137419.5</v>
+      </c>
+      <c r="CY4" s="10">
+        <v>148570983170592.81</v>
+      </c>
+      <c r="CZ4" s="10">
+        <v>83848311894495.453</v>
+      </c>
+      <c r="DA4" s="10">
+        <v>47095962769145.344</v>
+      </c>
+      <c r="DB4" s="10">
+        <v>26327297224714.789</v>
+      </c>
+      <c r="DC4" s="10">
+        <v>14647596365501.119</v>
+      </c>
+      <c r="DD4" s="10">
+        <v>8110884706023.8896</v>
+      </c>
+      <c r="DE4" s="10">
+        <v>4470089214334.5928</v>
+      </c>
+      <c r="DF4" s="10">
+        <v>2451966928906.021</v>
+      </c>
+      <c r="DG4" s="10">
+        <v>1338652547971.0071</v>
+      </c>
+      <c r="DH4" s="10">
+        <v>727411885531.77051</v>
+      </c>
+      <c r="DI4" s="10">
+        <v>393420177824.49152</v>
+      </c>
+      <c r="DJ4" s="10">
+        <v>211787859109.9213</v>
+      </c>
+      <c r="DK4" s="10">
+        <v>113479702669.38091</v>
+      </c>
+      <c r="DL4" s="10">
+        <v>60521899537.80732</v>
+      </c>
+      <c r="DM4" s="10">
+        <v>32128370679.390591</v>
+      </c>
+      <c r="DN4" s="10">
+        <v>16976619940.225651</v>
+      </c>
+      <c r="DO4" s="10">
+        <v>8929039180.0037918</v>
+      </c>
+      <c r="DP4" s="10">
+        <v>4674700985.4714069</v>
+      </c>
+      <c r="DQ4" s="10">
+        <v>2436145361.9207911</v>
+      </c>
+      <c r="DR4" s="10">
+        <v>1263739273.364711</v>
+      </c>
+      <c r="DS4" s="10">
+        <v>652561390.75082576</v>
+      </c>
+      <c r="DT4" s="10">
+        <v>335428207.27644223</v>
+      </c>
+      <c r="DU4" s="10">
+        <v>171631430.68108401</v>
+      </c>
+      <c r="DV4" s="10">
+        <v>87421416.163441733</v>
+      </c>
+      <c r="DW4" s="10">
+        <v>44326901.869897038</v>
+      </c>
+      <c r="DX4" s="10">
+        <v>22374338.919123009</v>
+      </c>
+      <c r="DY4" s="10">
+        <v>11242712.890247591</v>
+      </c>
+      <c r="DZ4" s="10">
+        <v>5623865.0971042085</v>
+      </c>
+      <c r="EA4" s="10">
+        <v>2800569.4071007199</v>
+      </c>
+      <c r="EB4" s="10">
+        <v>1388386.1523440671</v>
+      </c>
+      <c r="EC4" s="10">
+        <v>685222.34921855538</v>
+      </c>
+      <c r="ED4" s="10">
+        <v>336678.13582933549</v>
+      </c>
+      <c r="EE4" s="10">
+        <v>164689.26845811849</v>
+      </c>
+      <c r="EF4" s="10">
+        <v>80202.430789446415</v>
+      </c>
+      <c r="EG4" s="10">
+        <v>38885.390546543364</v>
+      </c>
+      <c r="EH4" s="10">
+        <v>18770.11650156078</v>
+      </c>
+      <c r="EI4" s="10">
+        <v>9020.5685646403963</v>
+      </c>
+      <c r="EJ4" s="10">
+        <v>4316.1067072519609</v>
+      </c>
+      <c r="EK4" s="10">
+        <v>2056.111365527689</v>
+      </c>
+      <c r="EL4" s="10">
+        <v>975.21905629040464</v>
+      </c>
+      <c r="EM4" s="10">
+        <v>460.53612047551712</v>
+      </c>
+      <c r="EN4" s="10">
+        <v>216.53897817255049</v>
+      </c>
+      <c r="EO4" s="10">
+        <v>101.37345021867161</v>
+      </c>
+      <c r="EP4" s="10">
+        <v>47.253396293017047</v>
+      </c>
+      <c r="EQ4" s="10">
+        <v>21.93145181788649</v>
+      </c>
+      <c r="ER4" s="10">
+        <v>10.13519680819384</v>
+      </c>
+      <c r="ES4" s="10">
+        <v>4.6637186145456413</v>
+      </c>
+      <c r="ET4" s="10">
+        <v>2.136843611362953</v>
+      </c>
+      <c r="EU4" s="10">
+        <v>0.97489598365789754</v>
+      </c>
+      <c r="EV4" s="10">
+        <v>0.44288794805127829</v>
+      </c>
+      <c r="EW4" s="10">
+        <v>0.20034770685366229</v>
+      </c>
+      <c r="EX4" s="10">
+        <v>9.0247403056807826E-2</v>
+      </c>
+      <c r="EY4" s="10">
+        <v>4.0480863160110181E-2</v>
+      </c>
+      <c r="EZ4" s="10">
+        <v>1.8081498258652368E-2</v>
+      </c>
+      <c r="FA4" s="10">
+        <v>8.0425458410890195E-3</v>
+      </c>
+      <c r="FB4" s="10">
+        <v>3.562312675172589E-3</v>
+      </c>
+      <c r="FC4" s="10">
+        <v>1.5712842663689339E-3</v>
+      </c>
+      <c r="FD4" s="10">
+        <v>6.9018670898799827E-4</v>
+      </c>
+      <c r="FE4" s="10">
+        <v>3.0190644950038538E-4</v>
+      </c>
+      <c r="FF4" s="10">
+        <v>1.3151552358400031E-4</v>
+      </c>
+      <c r="FG4" s="10">
+        <v>5.7053898886531429E-5</v>
+      </c>
+      <c r="FH4" s="10">
+        <v>2.464916250224055E-5</v>
+      </c>
+      <c r="FI4" s="10">
+        <v>1.060553006001339E-5</v>
+      </c>
+      <c r="FJ4" s="10">
+        <v>4.5444444250651171E-6</v>
+      </c>
+      <c r="FK4" s="10">
+        <v>1.9393323773133499E-6</v>
+      </c>
+      <c r="FL4" s="10">
+        <v>8.2423595194932166E-7</v>
+      </c>
+      <c r="FM4" s="10">
+        <v>3.4888598748583808E-7</v>
+      </c>
+      <c r="FN4" s="10">
+        <v>1.4707978028530649E-7</v>
+      </c>
+      <c r="FO4" s="10">
+        <v>6.1753942230440964E-8</v>
+      </c>
+      <c r="FP4" s="10">
+        <v>2.582399683308862E-8</v>
+      </c>
+      <c r="FQ4" s="10">
+        <v>1.075558582539475E-8</v>
+      </c>
+      <c r="FR4" s="10">
+        <v>4.461709490322281E-9</v>
+      </c>
+      <c r="FS4" s="10">
+        <v>1.843443701557305E-9</v>
+      </c>
+      <c r="FT4" s="10">
+        <v>7.5862053015652666E-10</v>
+      </c>
+      <c r="FU4" s="10">
+        <v>3.1094972016397102E-10</v>
+      </c>
+      <c r="FV4" s="10">
+        <v>1.2694960327421029E-10</v>
+      </c>
+      <c r="FW4" s="10">
+        <v>5.1624142123993577E-11</v>
+      </c>
+      <c r="FX4" s="10">
+        <v>2.0910257561047621E-11</v>
+      </c>
+      <c r="FY4" s="10">
+        <v>8.4363706843663663E-12</v>
+      </c>
+      <c r="FZ4" s="10">
+        <v>3.3903642061945942E-12</v>
+      </c>
+      <c r="GA4" s="10">
+        <v>1.3571759792387891E-12</v>
+      </c>
+      <c r="GB4" s="10">
+        <v>5.4116506647543768E-13</v>
+      </c>
+      <c r="GC4" s="10">
+        <v>2.1494719491370121E-13</v>
+      </c>
+      <c r="GD4" s="10">
+        <v>8.504462984990583E-14</v>
+      </c>
+      <c r="GE4" s="10">
+        <v>3.3518126056829882E-14</v>
+      </c>
+      <c r="GF4" s="10">
+        <v>1.31593643044371E-14</v>
+      </c>
+      <c r="GG4" s="10">
+        <v>5.1465600924483613E-15</v>
+      </c>
+      <c r="GH4" s="10">
+        <v>2.0050755630450369E-15</v>
+      </c>
+      <c r="GI4" s="10">
+        <v>7.7818093300177567E-16</v>
+      </c>
+      <c r="GJ4" s="10">
+        <v>3.0086463587189189E-16</v>
+      </c>
+      <c r="GK4" s="10">
+        <v>1.158795876826685E-16</v>
+      </c>
+      <c r="GL4" s="10">
+        <v>4.4462333411514217E-17</v>
+      </c>
+      <c r="GM4" s="10">
+        <v>1.6995329849602619E-17</v>
+      </c>
+      <c r="GN4" s="10">
+        <v>6.471560948970702E-18</v>
+      </c>
+      <c r="GO4" s="10">
+        <v>2.4543199296860742E-18</v>
+      </c>
+      <c r="GP4" s="10">
+        <v>9.2544878346711382E-19</v>
+      </c>
+      <c r="GQ4" s="10">
+        <v>3.4263706840980291E-19</v>
+      </c>
+      <c r="GR4" s="10">
+        <v>1.1283145728641051E-19</v>
+      </c>
+      <c r="GS4" s="10">
+        <v>0</v>
+      </c>
       <c r="GT4" s="6"/>
       <c r="GU4" s="6"/>
       <c r="GV4" s="6"/>
@@ -2977,207 +3497,609 @@
       <c r="MM4" s="6"/>
     </row>
     <row r="5" spans="1:351" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7"/>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
-      <c r="BM5" s="7"/>
-      <c r="BN5" s="7"/>
-      <c r="BO5" s="7"/>
-      <c r="BP5" s="7"/>
-      <c r="BQ5" s="7"/>
-      <c r="BR5" s="7"/>
-      <c r="BS5" s="7"/>
-      <c r="BT5" s="7"/>
-      <c r="BU5" s="7"/>
-      <c r="BV5" s="7"/>
-      <c r="BW5" s="7"/>
-      <c r="BX5" s="7"/>
-      <c r="BY5" s="7"/>
-      <c r="BZ5" s="7"/>
-      <c r="CA5" s="7"/>
-      <c r="CB5" s="7"/>
-      <c r="CC5" s="7"/>
-      <c r="CD5" s="7"/>
-      <c r="CE5" s="7"/>
-      <c r="CF5" s="7"/>
-      <c r="CG5" s="7"/>
-      <c r="CH5" s="7"/>
-      <c r="CI5" s="7"/>
-      <c r="CJ5" s="7"/>
-      <c r="CK5" s="7"/>
-      <c r="CL5" s="7"/>
-      <c r="CM5" s="7"/>
-      <c r="CN5" s="7"/>
-      <c r="CO5" s="7"/>
-      <c r="CP5" s="7"/>
-      <c r="CQ5" s="7"/>
-      <c r="CR5" s="7"/>
-      <c r="CS5" s="7"/>
-      <c r="CT5" s="7"/>
-      <c r="CU5" s="7"/>
-      <c r="CV5" s="7"/>
-      <c r="CW5" s="7"/>
-      <c r="CX5" s="7"/>
-      <c r="CY5" s="7"/>
-      <c r="CZ5" s="7"/>
-      <c r="DA5" s="7"/>
-      <c r="DB5" s="7"/>
-      <c r="DC5" s="7"/>
-      <c r="DD5" s="7"/>
-      <c r="DE5" s="7"/>
-      <c r="DF5" s="7"/>
-      <c r="DG5" s="7"/>
-      <c r="DH5" s="7"/>
-      <c r="DI5" s="7"/>
-      <c r="DJ5" s="7"/>
-      <c r="DK5" s="7"/>
-      <c r="DL5" s="7"/>
-      <c r="DM5" s="7"/>
-      <c r="DN5" s="7"/>
-      <c r="DO5" s="7"/>
-      <c r="DP5" s="7"/>
-      <c r="DQ5" s="7"/>
-      <c r="DR5" s="7"/>
-      <c r="DS5" s="7"/>
-      <c r="DT5" s="7"/>
-      <c r="DU5" s="7"/>
-      <c r="DV5" s="7"/>
-      <c r="DW5" s="7"/>
-      <c r="DX5" s="7"/>
-      <c r="DY5" s="7"/>
-      <c r="DZ5" s="7"/>
-      <c r="EA5" s="7"/>
-      <c r="EB5" s="7"/>
-      <c r="EC5" s="7"/>
-      <c r="ED5" s="7"/>
-      <c r="EE5" s="7"/>
-      <c r="EF5" s="7"/>
-      <c r="EG5" s="7"/>
-      <c r="EH5" s="7"/>
-      <c r="EI5" s="7"/>
-      <c r="EJ5" s="7"/>
-      <c r="EK5" s="7"/>
-      <c r="EL5" s="7"/>
-      <c r="EM5" s="7"/>
-      <c r="EN5" s="7"/>
-      <c r="EO5" s="7"/>
-      <c r="EP5" s="7"/>
-      <c r="EQ5" s="7"/>
-      <c r="ER5" s="7"/>
-      <c r="ES5" s="7"/>
-      <c r="ET5" s="7"/>
-      <c r="EU5" s="7"/>
-      <c r="EV5" s="7"/>
-      <c r="EW5" s="7"/>
-      <c r="EX5" s="7"/>
-      <c r="EY5" s="7"/>
-      <c r="EZ5" s="7"/>
-      <c r="FA5" s="7"/>
-      <c r="FB5" s="7"/>
-      <c r="FC5" s="7"/>
-      <c r="FD5" s="7"/>
-      <c r="FE5" s="7"/>
-      <c r="FF5" s="7"/>
-      <c r="FG5" s="7"/>
-      <c r="FH5" s="7"/>
-      <c r="FI5" s="7"/>
-      <c r="FJ5" s="7"/>
-      <c r="FK5" s="7"/>
-      <c r="FL5" s="7"/>
-      <c r="FM5" s="7"/>
-      <c r="FN5" s="7"/>
-      <c r="FO5" s="7"/>
-      <c r="FP5" s="7"/>
-      <c r="FQ5" s="7"/>
-      <c r="FR5" s="7"/>
-      <c r="FS5" s="7"/>
-      <c r="FT5" s="7"/>
-      <c r="FU5" s="7"/>
-      <c r="FV5" s="7"/>
-      <c r="FW5" s="7"/>
-      <c r="FX5" s="7"/>
-      <c r="FY5" s="7"/>
-      <c r="FZ5" s="7"/>
-      <c r="GA5" s="7"/>
-      <c r="GB5" s="7"/>
-      <c r="GC5" s="7"/>
-      <c r="GD5" s="7"/>
-      <c r="GE5" s="7"/>
-      <c r="GF5" s="7"/>
-      <c r="GG5" s="7"/>
-      <c r="GH5" s="7"/>
-      <c r="GI5" s="7"/>
-      <c r="GJ5" s="7"/>
-      <c r="GK5" s="7"/>
-      <c r="GL5" s="7"/>
-      <c r="GM5" s="7"/>
-      <c r="GN5" s="7"/>
-      <c r="GO5" s="7"/>
-      <c r="GP5" s="7"/>
-      <c r="GQ5" s="7"/>
-      <c r="GR5" s="7"/>
-      <c r="GS5" s="7"/>
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2.6274798448042149E+28</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2.4680045197342501E+28</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2.3140486413876459E+28</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.1657496166627172E+28</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2.0232181477059948E+28</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1.886538075315861E+28</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1.755766472374205E+28</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.6309339812889389E+28</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1.512045385984297E+28</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1.3990804057660671E+28</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1.2919946954709439E+28</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1.190721033736711E+28</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1.095170679044799E+28</v>
+      </c>
+      <c r="O5" s="11">
+        <v>1.005234871422159E+28</v>
+      </c>
+      <c r="P5" s="11">
+        <v>9.2078645636672197E+27</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>8.4168160669166331E+27</v>
+      </c>
+      <c r="R5" s="11">
+        <v>7.6776161756875862E+27</v>
+      </c>
+      <c r="S5" s="11">
+        <v>6.9885475007995185E+27</v>
+      </c>
+      <c r="T5" s="11">
+        <v>6.3477809903994084E+27</v>
+      </c>
+      <c r="U5" s="11">
+        <v>5.7533946170224832E+27</v>
+      </c>
+      <c r="V5" s="11">
+        <v>5.2033918517105022E+27</v>
+      </c>
+      <c r="W5" s="11">
+        <v>4.6957197186852297E+27</v>
+      </c>
+      <c r="X5" s="11">
+        <v>4.2282862420514209E+27</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>3.7989771161727019E+27</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>3.4056714531940389E+27</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>3.0462564841422741E+27</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>2.7186411135904722E+27</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>2.420768251517523E+27</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>2.15062586925755E+27</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>1.9062567488792781E+27</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>1.685766916583673E+27</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>1.487332770430704E+27</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>1.309206930636948E+27</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>1.1497228566196461E+27</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>1.00729828875661E+27</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>8.8043758440239794E+26</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>7.6773302702289916E+26</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>6.6786519440989809E+26</v>
+      </c>
+      <c r="AN5" s="11">
+        <v>5.7960247688773341E+26</v>
+      </c>
+      <c r="AO5" s="11">
+        <v>5.0179983933996752E+26</v>
+      </c>
+      <c r="AP5" s="11">
+        <v>4.3339692191334538E+26</v>
+      </c>
+      <c r="AQ5" s="11">
+        <v>3.7341557357405112E+26</v>
+      </c>
+      <c r="AR5" s="11">
+        <v>3.2095691049209941E+26</v>
+      </c>
+      <c r="AS5" s="11">
+        <v>2.7519798772083681E+26</v>
+      </c>
+      <c r="AT5" s="11">
+        <v>2.3538816803401859E+26</v>
+      </c>
+      <c r="AU5" s="11">
+        <v>2.008452662963235E+26</v>
+      </c>
+      <c r="AV5" s="11">
+        <v>1.7095154158382121E+26</v>
+      </c>
+      <c r="AW5" s="11">
+        <v>1.4514960263783971E+26</v>
+      </c>
+      <c r="AX5" s="11">
+        <v>1.229382853150507E+26</v>
+      </c>
+      <c r="AY5" s="11">
+        <v>1.0386855365785169E+26</v>
+      </c>
+      <c r="AZ5" s="11">
+        <v>8.7539469203441953E+25</v>
+      </c>
+      <c r="BA5" s="11">
+        <v>7.3594266308468239E+25</v>
+      </c>
+      <c r="BB5" s="11">
+        <v>6.1716564699366409E+25</v>
+      </c>
+      <c r="BC5" s="11">
+        <v>5.1626744256558686E+25</v>
+      </c>
+      <c r="BD5" s="11">
+        <v>4.3078501273359393E+25</v>
+      </c>
+      <c r="BE5" s="11">
+        <v>3.5855600148709352E+25</v>
+      </c>
+      <c r="BF5" s="11">
+        <v>2.976882970985525E+25</v>
+      </c>
+      <c r="BG5" s="11">
+        <v>2.4653169134026772E+25</v>
+      </c>
+      <c r="BH5" s="11">
+        <v>2.0365164750079298E+25</v>
+      </c>
+      <c r="BI5" s="11">
+        <v>1.6780515842862601E+25</v>
+      </c>
+      <c r="BJ5" s="11">
+        <v>1.379186493549282E+25</v>
+      </c>
+      <c r="BK5" s="11">
+        <v>1.1306785860328789E+25</v>
+      </c>
+      <c r="BL5" s="11">
+        <v>9.2459612146445841E+24</v>
+      </c>
+      <c r="BM5" s="11">
+        <v>7.541539493605723E+24</v>
+      </c>
+      <c r="BN5" s="11">
+        <v>6.1356612602483319E+24</v>
+      </c>
+      <c r="BO5" s="11">
+        <v>4.9791431073445186E+24</v>
+      </c>
+      <c r="BP5" s="11">
+        <v>4.030307846807158E+24</v>
+      </c>
+      <c r="BQ5" s="11">
+        <v>3.2539492870128918E+24</v>
+      </c>
+      <c r="BR5" s="11">
+        <v>2.6204200872277608E+24</v>
+      </c>
+      <c r="BS5" s="11">
+        <v>2.1048314737441119E+24</v>
+      </c>
+      <c r="BT5" s="11">
+        <v>1.6863540298076401E+24</v>
+      </c>
+      <c r="BU5" s="11">
+        <v>1.3476092995821281E+24</v>
+      </c>
+      <c r="BV5" s="11">
+        <v>1.074142547321991E+24</v>
+      </c>
+      <c r="BW5" s="11">
+        <v>8.5396766211989913E+23</v>
+      </c>
+      <c r="BX5" s="11">
+        <v>6.771758750102614E+23</v>
+      </c>
+      <c r="BY5" s="11">
+        <v>5.3560064108202348E+23</v>
+      </c>
+      <c r="BZ5" s="11">
+        <v>4.2253171993710828E+23</v>
+      </c>
+      <c r="CA5" s="11">
+        <v>3.3247215155099369E+23</v>
+      </c>
+      <c r="CB5" s="11">
+        <v>2.6093246218508841E+23</v>
+      </c>
+      <c r="CC5" s="11">
+        <v>2.0425703962753748E+23</v>
+      </c>
+      <c r="CD5" s="11">
+        <v>1.594781838958116E+23</v>
+      </c>
+      <c r="CE5" s="11">
+        <v>1.2419386556534039E+23</v>
+      </c>
+      <c r="CF5" s="11">
+        <v>9.646570751132908E+22</v>
+      </c>
+      <c r="CG5" s="11">
+        <v>7.4734146697470667E+22</v>
+      </c>
+      <c r="CH5" s="11">
+        <v>5.7748131323457227E+22</v>
+      </c>
+      <c r="CI5" s="11">
+        <v>4.4507066521907402E+22</v>
+      </c>
+      <c r="CJ5" s="11">
+        <v>3.4213040814466359E+22</v>
+      </c>
+      <c r="CK5" s="11">
+        <v>2.6231648041683191E+22</v>
+      </c>
+      <c r="CL5" s="11">
+        <v>2.005996808169804E+22</v>
+      </c>
+      <c r="CM5" s="11">
+        <v>1.5300487125485291E+22</v>
+      </c>
+      <c r="CN5" s="11">
+        <v>1.163992738864402E+22</v>
+      </c>
+      <c r="CO5" s="11">
+        <v>8.8321196928837228E+21</v>
+      </c>
+      <c r="CP5" s="11">
+        <v>6.6841930407703982E+21</v>
+      </c>
+      <c r="CQ5" s="11">
+        <v>5.0454757025808835E+21</v>
+      </c>
+      <c r="CR5" s="11">
+        <v>3.7986048424582809E+21</v>
+      </c>
+      <c r="CS5" s="11">
+        <v>2.852428561635584E+21</v>
+      </c>
+      <c r="CT5" s="11">
+        <v>2.136357468885678E+21</v>
+      </c>
+      <c r="CU5" s="11">
+        <v>1.5958843492964051E+21</v>
+      </c>
+      <c r="CV5" s="11">
+        <v>1.1890418482598159E+21</v>
+      </c>
+      <c r="CW5" s="11">
+        <v>8.8361079078127062E+20</v>
+      </c>
+      <c r="CX5" s="11">
+        <v>6.5492711550728759E+20</v>
+      </c>
+      <c r="CY5" s="11">
+        <v>4.8416455485008223E+20</v>
+      </c>
+      <c r="CZ5" s="11">
+        <v>3.5699412495402723E+20</v>
+      </c>
+      <c r="DA5" s="11">
+        <v>2.625410545135599E+20</v>
+      </c>
+      <c r="DB5" s="11">
+        <v>1.9257571070953868E+20</v>
+      </c>
+      <c r="DC5" s="11">
+        <v>1.408879969005702E+20</v>
+      </c>
+      <c r="DD5" s="11">
+        <v>1.0280512814594471E+20</v>
+      </c>
+      <c r="DE5" s="11">
+        <v>7.4821081934735458E+19</v>
+      </c>
+      <c r="DF5" s="11">
+        <v>5.431274531323496E+19</v>
+      </c>
+      <c r="DG5" s="11">
+        <v>3.9323146511609053E+19</v>
+      </c>
+      <c r="DH5" s="11">
+        <v>2.839642665980708E+19</v>
+      </c>
+      <c r="DI5" s="11">
+        <v>2.0452587659853418E+19</v>
+      </c>
+      <c r="DJ5" s="11">
+        <v>1.469272010678425E+19</v>
+      </c>
+      <c r="DK5" s="11">
+        <v>1.0527512767035349E+19</v>
+      </c>
+      <c r="DL5" s="11">
+        <v>7.5234883554415974E+18</v>
+      </c>
+      <c r="DM5" s="11">
+        <v>5.3626929484404152E+18</v>
+      </c>
+      <c r="DN5" s="11">
+        <v>3.8125638703479158E+18</v>
+      </c>
+      <c r="DO5" s="11">
+        <v>2.7034738893551549E+18</v>
+      </c>
+      <c r="DP5" s="11">
+        <v>1.9120464611476951E+18</v>
+      </c>
+      <c r="DQ5" s="11">
+        <v>1.3487960549680389E+18</v>
+      </c>
+      <c r="DR5" s="11">
+        <v>9.4899977601828173E+17</v>
+      </c>
+      <c r="DS5" s="11">
+        <v>6.6597560395856909E+17</v>
+      </c>
+      <c r="DT5" s="11">
+        <v>4.6614748638073747E+17</v>
+      </c>
+      <c r="DU5" s="11">
+        <v>3.2543303362416973E+17</v>
+      </c>
+      <c r="DV5" s="11">
+        <v>2.266071698691849E+17</v>
+      </c>
+      <c r="DW5" s="11">
+        <v>1.573837404872407E+17</v>
+      </c>
+      <c r="DX5" s="11">
+        <v>1.0902366523561819E+17</v>
+      </c>
+      <c r="DY5" s="11">
+        <v>7.532808126329856E+16</v>
+      </c>
+      <c r="DZ5" s="11">
+        <v>5.191212076176792E+16</v>
+      </c>
+      <c r="EA5" s="11">
+        <v>3.5682635184310808E+16</v>
+      </c>
+      <c r="EB5" s="11">
+        <v>2.446368684343272E+16</v>
+      </c>
+      <c r="EC5" s="11">
+        <v>1.672878160794135E+16</v>
+      </c>
+      <c r="ED5" s="11">
+        <v>1.140997560878597E+16</v>
+      </c>
+      <c r="EE5" s="11">
+        <v>7762180266169108</v>
+      </c>
+      <c r="EF5" s="11">
+        <v>5266983442072123</v>
+      </c>
+      <c r="EG5" s="11">
+        <v>3564675753112660</v>
+      </c>
+      <c r="EH5" s="11">
+        <v>2406348947885757</v>
+      </c>
+      <c r="EI5" s="11">
+        <v>1620236193837191</v>
+      </c>
+      <c r="EJ5" s="11">
+        <v>1088127722531125</v>
+      </c>
+      <c r="EK5" s="11">
+        <v>728893244252196.87</v>
+      </c>
+      <c r="EL5" s="11">
+        <v>487002482247668.37</v>
+      </c>
+      <c r="EM5" s="11">
+        <v>324550537385445.12</v>
+      </c>
+      <c r="EN5" s="11">
+        <v>215733762778990.81</v>
+      </c>
+      <c r="EO5" s="11">
+        <v>143033993553033.81</v>
+      </c>
+      <c r="EP5" s="11">
+        <v>94590280760114.422</v>
+      </c>
+      <c r="EQ5" s="11">
+        <v>62393683276363.367</v>
+      </c>
+      <c r="ER5" s="11">
+        <v>41050869428655.141</v>
+      </c>
+      <c r="ES5" s="11">
+        <v>26939684116737.371</v>
+      </c>
+      <c r="ET5" s="11">
+        <v>17634040386523.25</v>
+      </c>
+      <c r="EU5" s="11">
+        <v>11513335364960.779</v>
+      </c>
+      <c r="EV5" s="11">
+        <v>7497928266145.665</v>
+      </c>
+      <c r="EW5" s="11">
+        <v>4870494187391.375</v>
+      </c>
+      <c r="EX5" s="11">
+        <v>3155711048233.5142</v>
+      </c>
+      <c r="EY5" s="11">
+        <v>2039457804366.446</v>
+      </c>
+      <c r="EZ5" s="11">
+        <v>1314699088201.9099</v>
+      </c>
+      <c r="FA5" s="11">
+        <v>845343080844.37183</v>
+      </c>
+      <c r="FB5" s="11">
+        <v>542170040375.35327</v>
+      </c>
+      <c r="FC5" s="11">
+        <v>346844473887.70111</v>
+      </c>
+      <c r="FD5" s="11">
+        <v>221325616388.5094</v>
+      </c>
+      <c r="FE5" s="11">
+        <v>140872791571.5361</v>
+      </c>
+      <c r="FF5" s="11">
+        <v>89437983747.157104</v>
+      </c>
+      <c r="FG5" s="11">
+        <v>56639216163.782272</v>
+      </c>
+      <c r="FH5" s="11">
+        <v>35777809434.22094</v>
+      </c>
+      <c r="FI5" s="11">
+        <v>22543039250.332531</v>
+      </c>
+      <c r="FJ5" s="11">
+        <v>14168188805.742689</v>
+      </c>
+      <c r="FK5" s="11">
+        <v>8882194910.0011349</v>
+      </c>
+      <c r="FL5" s="11">
+        <v>5554325313.6591759</v>
+      </c>
+      <c r="FM5" s="11">
+        <v>3464562010.3984432</v>
+      </c>
+      <c r="FN5" s="11">
+        <v>2155620716.8376079</v>
+      </c>
+      <c r="FO5" s="11">
+        <v>1337840441.2747929</v>
+      </c>
+      <c r="FP5" s="11">
+        <v>828219092.70631516</v>
+      </c>
+      <c r="FQ5" s="11">
+        <v>511441653.10994112</v>
+      </c>
+      <c r="FR5" s="11">
+        <v>315034336.4650324</v>
+      </c>
+      <c r="FS5" s="11">
+        <v>193567139.86987311</v>
+      </c>
+      <c r="FT5" s="11">
+        <v>118636502.178187</v>
+      </c>
+      <c r="FU5" s="11">
+        <v>72530223.126510099</v>
+      </c>
+      <c r="FV5" s="11">
+        <v>44231808.759175777</v>
+      </c>
+      <c r="FW5" s="11">
+        <v>26907070.96048557</v>
+      </c>
+      <c r="FX5" s="11">
+        <v>16327332.14525353</v>
+      </c>
+      <c r="FY5" s="11">
+        <v>9882848.9066336602</v>
+      </c>
+      <c r="FZ5" s="11">
+        <v>5967167.9313526759</v>
+      </c>
+      <c r="GA5" s="11">
+        <v>3593971.2499833009</v>
+      </c>
+      <c r="GB5" s="11">
+        <v>2159246.5487028221</v>
+      </c>
+      <c r="GC5" s="11">
+        <v>1294053.50524116</v>
+      </c>
+      <c r="GD5" s="11">
+        <v>773616.39296098601</v>
+      </c>
+      <c r="GE5" s="11">
+        <v>461342.62394453317</v>
+      </c>
+      <c r="GF5" s="11">
+        <v>274439.73886338138</v>
+      </c>
+      <c r="GG5" s="11">
+        <v>162853.38022488501</v>
+      </c>
+      <c r="GH5" s="11">
+        <v>96399.178912753283</v>
+      </c>
+      <c r="GI5" s="11">
+        <v>56921.417799019233</v>
+      </c>
+      <c r="GJ5" s="11">
+        <v>33527.315278028262</v>
+      </c>
+      <c r="GK5" s="11">
+        <v>19698.12312066399</v>
+      </c>
+      <c r="GL5" s="11">
+        <v>11542.45601381905</v>
+      </c>
+      <c r="GM5" s="11">
+        <v>6742.9252639487331</v>
+      </c>
+      <c r="GN5" s="11">
+        <v>3922.4396210251562</v>
+      </c>
+      <c r="GO5" s="11">
+        <v>2263.7984697487641</v>
+      </c>
+      <c r="GP5" s="11">
+        <v>1281.6397503783289</v>
+      </c>
+      <c r="GQ5" s="11">
+        <v>685.58360670213085</v>
+      </c>
+      <c r="GR5" s="11">
+        <v>297.47006335716787</v>
+      </c>
+      <c r="GS5" s="11">
+        <v>0</v>
+      </c>
       <c r="GT5" s="7"/>
       <c r="GU5" s="7"/>
       <c r="GV5" s="7"/>
@@ -3330,7 +4252,609 @@
       <c r="MM5" s="7"/>
     </row>
     <row r="6" spans="1:351" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3.3068031435779249E+28</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3.168887113440203E+28</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3.0339651763630089E+28</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.9021240632237799E+28</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2.7734423083665708E+28</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2.6479900960715122E+28</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2.525829148716581E+28</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2.4070126567825819E+28</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2.2915852505376541E+28</v>
+      </c>
+      <c r="K6" s="12">
+        <v>2.1795830129306541E+28</v>
+      </c>
+      <c r="L6" s="12">
+        <v>2.071033532922658E+28</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1.9659559981984569E+28</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1.8643613259251171E+28</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1.76625232996804E+28</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1.6716239227359939E+28</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>1.5804633496093331E+28</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1.492750453711217E+28</v>
+      </c>
+      <c r="S6" s="12">
+        <v>1.408457968611061E+28</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1.3275518364045779E+28</v>
+      </c>
+      <c r="U6" s="12">
+        <v>1.2499915484963021E+28</v>
+      </c>
+      <c r="V6" s="12">
+        <v>1.1757305063185881E+28</v>
+      </c>
+      <c r="W6" s="12">
+        <v>1.104716399156152E+28</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1.036891596207265E+28</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>9.7219355000134789E+27</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>9.1055520830655732E+27</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>8.5190543170006621E+27</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>7.9616941403592716E+27</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>7.4326910312982398E+27</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>6.9312361908458396E+27</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>6.456496678034008E+27</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>6.0076194737742637E+27</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>5.5837354518821217E+27</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>5.1839632373177493E+27</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>4.8074129334717578E+27</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>4.4531897021647517E+27</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>4.12039718192355E+27</v>
+      </c>
+      <c r="AL6" s="12">
+        <v>3.8081407320251259E+27</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>3.5155304917396492E+27</v>
+      </c>
+      <c r="AN6" s="12">
+        <v>3.2416842461367169E+27</v>
+      </c>
+      <c r="AO6" s="12">
+        <v>2.9857300917234672E+27</v>
+      </c>
+      <c r="AP6" s="12">
+        <v>2.7468088970445808E+27</v>
+      </c>
+      <c r="AQ6" s="12">
+        <v>2.5240765551725688E+27</v>
+      </c>
+      <c r="AR6" s="12">
+        <v>2.3167060267405181E+27</v>
+      </c>
+      <c r="AS6" s="12">
+        <v>2.12388917380351E+27</v>
+      </c>
+      <c r="AT6" s="12">
+        <v>1.9448383863486759E+27</v>
+      </c>
+      <c r="AU6" s="12">
+        <v>1.7787880046985249E+27</v>
+      </c>
+      <c r="AV6" s="12">
+        <v>1.6249955423586979E+27</v>
+      </c>
+      <c r="AW6" s="12">
+        <v>1.482742715045218E+27</v>
+      </c>
+      <c r="AX6" s="12">
+        <v>1.3513362826828221E+27</v>
+      </c>
+      <c r="AY6" s="12">
+        <v>1.2301087120930159E+27</v>
+      </c>
+      <c r="AZ6" s="12">
+        <v>1.1184186688872969E+27</v>
+      </c>
+      <c r="BA6" s="12">
+        <v>1.0156513477484829E+27</v>
+      </c>
+      <c r="BB6" s="12">
+        <v>9.2121865082340262E+26</v>
+      </c>
+      <c r="BC6" s="12">
+        <v>8.3455922436696746E+26</v>
+      </c>
+      <c r="BD6" s="12">
+        <v>7.5513836407566077E+26</v>
+      </c>
+      <c r="BE6" s="12">
+        <v>6.8244779973321782E+26</v>
+      </c>
+      <c r="BF6" s="12">
+        <v>6.1600536986943409E+26</v>
+      </c>
+      <c r="BG6" s="12">
+        <v>5.5535459711223897E+26</v>
+      </c>
+      <c r="BH6" s="12">
+        <v>5.000641748005808E+26</v>
+      </c>
+      <c r="BI6" s="12">
+        <v>4.4972737523032688E+26</v>
+      </c>
+      <c r="BJ6" s="12">
+        <v>4.0396138963549053E+26</v>
+      </c>
+      <c r="BK6" s="12">
+        <v>3.6240660967136851E+26</v>
+      </c>
+      <c r="BL6" s="12">
+        <v>3.2472585977365747E+26</v>
+      </c>
+      <c r="BM6" s="12">
+        <v>2.90603589326758E+26</v>
+      </c>
+      <c r="BN6" s="12">
+        <v>2.597450330938884E+26</v>
+      </c>
+      <c r="BO6" s="12">
+        <v>2.318753478496651E+26</v>
+      </c>
+      <c r="BP6" s="12">
+        <v>2.067387326200711E+26</v>
+      </c>
+      <c r="BQ6" s="12">
+        <v>1.8409753938297001E+26</v>
+      </c>
+      <c r="BR6" s="12">
+        <v>1.6373138052135891E+26</v>
+      </c>
+      <c r="BS6" s="12">
+        <v>1.454362387577953E+26</v>
+      </c>
+      <c r="BT6" s="12">
+        <v>1.290235847378997E+26</v>
+      </c>
+      <c r="BU6" s="12">
+        <v>1.1431950687870059E+26</v>
+      </c>
+      <c r="BV6" s="12">
+        <v>1.0116385755861629E+26</v>
+      </c>
+      <c r="BW6" s="12">
+        <v>8.9409419204162986E+25</v>
+      </c>
+      <c r="BX6" s="12">
+        <v>7.8921093327526661E+25</v>
+      </c>
+      <c r="BY6" s="12">
+        <v>6.9575115091880888E+25</v>
+      </c>
+      <c r="BZ6" s="12">
+        <v>6.1258295530168574E+25</v>
+      </c>
+      <c r="CA6" s="12">
+        <v>5.38672931197901E+25</v>
+      </c>
+      <c r="CB6" s="12">
+        <v>4.7307916021623522E+25</v>
+      </c>
+      <c r="CC6" s="12">
+        <v>4.1494455927907116E+25</v>
+      </c>
+      <c r="CD6" s="12">
+        <v>3.634905413016789E+25</v>
+      </c>
+      <c r="CE6" s="12">
+        <v>3.1801100115651042E+25</v>
+      </c>
+      <c r="CF6" s="12">
+        <v>2.7786662728272168E+25</v>
+      </c>
+      <c r="CG6" s="12">
+        <v>2.4247953687389132E+25</v>
+      </c>
+      <c r="CH6" s="12">
+        <v>2.1132823043788922E+25</v>
+      </c>
+      <c r="CI6" s="12">
+        <v>1.839428596609919E+25</v>
+      </c>
+      <c r="CJ6" s="12">
+        <v>1.5990080091090049E+25</v>
+      </c>
+      <c r="CK6" s="12">
+        <v>1.388225253658089E+25</v>
+      </c>
+      <c r="CL6" s="12">
+        <v>1.203677556435494E+25</v>
+      </c>
+      <c r="CM6" s="12">
+        <v>1.0423189790978749E+25</v>
+      </c>
+      <c r="CN6" s="12">
+        <v>9.0142737750342022E+24</v>
+      </c>
+      <c r="CO6" s="12">
+        <v>7.7857387582836654E+24</v>
+      </c>
+      <c r="CP6" s="12">
+        <v>6.7159473039897116E+24</v>
+      </c>
+      <c r="CQ6" s="12">
+        <v>5.7856545563057875E+24</v>
+      </c>
+      <c r="CR6" s="12">
+        <v>4.9777708386918086E+24</v>
+      </c>
+      <c r="CS6" s="12">
+        <v>4.2771443150850063E+24</v>
+      </c>
+      <c r="CT6" s="12">
+        <v>3.6703624535486861E+24</v>
+      </c>
+      <c r="CU6" s="12">
+        <v>3.1455710568686072E+24</v>
+      </c>
+      <c r="CV6" s="12">
+        <v>2.6923096567132789E+24</v>
+      </c>
+      <c r="CW6" s="12">
+        <v>2.3013621062417441E+24</v>
+      </c>
+      <c r="CX6" s="12">
+        <v>1.964621249259115E+24</v>
+      </c>
+      <c r="CY6" s="12">
+        <v>1.6749665911079691E+24</v>
+      </c>
+      <c r="CZ6" s="12">
+        <v>1.4261539464660489E+24</v>
+      </c>
+      <c r="DA6" s="12">
+        <v>1.2127160912182789E+24</v>
+      </c>
+      <c r="DB6" s="12">
+        <v>1.029873498800055E+24</v>
+      </c>
+      <c r="DC6" s="12">
+        <v>8.7345429517905323E+23</v>
+      </c>
+      <c r="DD6" s="12">
+        <v>7.3982262035199452E+23</v>
+      </c>
+      <c r="DE6" s="12">
+        <v>6.2581463736259083E+23</v>
+      </c>
+      <c r="DF6" s="12">
+        <v>5.2868148195795192E+23</v>
+      </c>
+      <c r="DG6" s="12">
+        <v>4.4603849672657257E+23</v>
+      </c>
+      <c r="DH6" s="12">
+        <v>3.7582014260227033E+23</v>
+      </c>
+      <c r="DI6" s="12">
+        <v>3.1624002773768257E+23</v>
+      </c>
+      <c r="DJ6" s="12">
+        <v>2.6575553876580561E+23</v>
+      </c>
+      <c r="DK6" s="12">
+        <v>2.2303660224628939E+23</v>
+      </c>
+      <c r="DL6" s="12">
+        <v>1.8693814454631121E+23</v>
+      </c>
+      <c r="DM6" s="12">
+        <v>1.5647585648460311E+23</v>
+      </c>
+      <c r="DN6" s="12">
+        <v>1.3080490475534241E+23</v>
+      </c>
+      <c r="DO6" s="12">
+        <v>1.0920126545913849E+23</v>
+      </c>
+      <c r="DP6" s="12">
+        <v>9.1045386038251553E+22</v>
+      </c>
+      <c r="DQ6" s="12">
+        <v>7.580791059971315E+22</v>
+      </c>
+      <c r="DR6" s="12">
+        <v>6.3037230086710823E+22</v>
+      </c>
+      <c r="DS6" s="12">
+        <v>5.2348643111933147E+22</v>
+      </c>
+      <c r="DT6" s="12">
+        <v>4.3414935592865733E+22</v>
+      </c>
+      <c r="DU6" s="12">
+        <v>3.5958207731710781E+22</v>
+      </c>
+      <c r="DV6" s="12">
+        <v>2.974279546985336E+22</v>
+      </c>
+      <c r="DW6" s="12">
+        <v>2.45691504294381E+22</v>
+      </c>
+      <c r="DX6" s="12">
+        <v>2.0268557644325359E+22</v>
+      </c>
+      <c r="DY6" s="12">
+        <v>1.66985841905422E+22</v>
+      </c>
+      <c r="DZ6" s="12">
+        <v>1.3739164261466501E+22</v>
+      </c>
+      <c r="EA6" s="12">
+        <v>1.1289237401644791E+22</v>
+      </c>
+      <c r="EB6" s="12">
+        <v>9.2638666178459578E+21</v>
+      </c>
+      <c r="EC6" s="12">
+        <v>7.5917720248349989E+21</v>
+      </c>
+      <c r="ED6" s="12">
+        <v>6.2132236497365835E+21</v>
+      </c>
+      <c r="EE6" s="12">
+        <v>5.0782441008912704E+21</v>
+      </c>
+      <c r="EF6" s="12">
+        <v>4.1450780875957868E+21</v>
+      </c>
+      <c r="EG6" s="12">
+        <v>3.3788913334105518E+21</v>
+      </c>
+      <c r="EH6" s="12">
+        <v>2.7506663297086401E+21</v>
+      </c>
+      <c r="EI6" s="12">
+        <v>2.236266694346339E+21</v>
+      </c>
+      <c r="EJ6" s="12">
+        <v>1.8156456940108259E+21</v>
+      </c>
+      <c r="EK6" s="12">
+        <v>1.4721778141299391E+21</v>
+      </c>
+      <c r="EL6" s="12">
+        <v>1.192095168530565E+21</v>
+      </c>
+      <c r="EM6" s="12">
+        <v>9.6401307900406399E+20</v>
+      </c>
+      <c r="EN6" s="12">
+        <v>7.7853136491839763E+20</v>
+      </c>
+      <c r="EO6" s="12">
+        <v>6.2789980325669162E+20</v>
+      </c>
+      <c r="EP6" s="12">
+        <v>5.0573788440033958E+20</v>
+      </c>
+      <c r="EQ6" s="12">
+        <v>4.0680042951765282E+20</v>
+      </c>
+      <c r="ER6" s="12">
+        <v>3.2678187921513362E+20</v>
+      </c>
+      <c r="ES6" s="12">
+        <v>2.6215313481485038E+20</v>
+      </c>
+      <c r="ET6" s="12">
+        <v>2.1002575516232099E+20</v>
+      </c>
+      <c r="EU6" s="12">
+        <v>1.680391026822513E+20</v>
+      </c>
+      <c r="EV6" s="12">
+        <v>1.34266709667806E+20</v>
+      </c>
+      <c r="EW6" s="12">
+        <v>1.0713871466173669E+20</v>
+      </c>
+      <c r="EX6" s="12">
+        <v>8.5377712583789887E+19</v>
+      </c>
+      <c r="EY6" s="12">
+        <v>6.7945782657295016E+19</v>
+      </c>
+      <c r="EZ6" s="12">
+        <v>5.4000815403242758E+19</v>
+      </c>
+      <c r="FA6" s="12">
+        <v>4.2860562912975749E+19</v>
+      </c>
+      <c r="FB6" s="12">
+        <v>3.3973093034631258E+19</v>
+      </c>
+      <c r="FC6" s="12">
+        <v>2.6892544744066421E+19</v>
+      </c>
+      <c r="FD6" s="12">
+        <v>2.1259264646183129E+19</v>
+      </c>
+      <c r="FE6" s="12">
+        <v>1.678355830183946E+19</v>
+      </c>
+      <c r="FF6" s="12">
+        <v>1.323241923774705E+19</v>
+      </c>
+      <c r="FG6" s="12">
+        <v>1.0418706802511401E+19</v>
+      </c>
+      <c r="FH6" s="12">
+        <v>8.1923346815970355E+18</v>
+      </c>
+      <c r="FI6" s="12">
+        <v>6.4331076166835712E+18</v>
+      </c>
+      <c r="FJ6" s="12">
+        <v>5.0449070299038208E+18</v>
+      </c>
+      <c r="FK6" s="12">
+        <v>3.9509788241741711E+18</v>
+      </c>
+      <c r="FL6" s="12">
+        <v>3.0901203121082378E+18</v>
+      </c>
+      <c r="FM6" s="12">
+        <v>2.413599455831511E+18</v>
+      </c>
+      <c r="FN6" s="12">
+        <v>1.8826695958045299E+18</v>
+      </c>
+      <c r="FO6" s="12">
+        <v>1.4665676370309179E+18</v>
+      </c>
+      <c r="FP6" s="12">
+        <v>1.140904112874473E+18</v>
+      </c>
+      <c r="FQ6" s="12">
+        <v>8.8637038964379008E+17</v>
+      </c>
+      <c r="FR6" s="12">
+        <v>6.8770212160623962E+17</v>
+      </c>
+      <c r="FS6" s="12">
+        <v>5.3284942935206022E+17</v>
+      </c>
+      <c r="FT6" s="12">
+        <v>4.123135835622873E+17</v>
+      </c>
+      <c r="FU6" s="12">
+        <v>3.1861758934454982E+17</v>
+      </c>
+      <c r="FV6" s="12">
+        <v>2.45884281635444E+17</v>
+      </c>
+      <c r="FW6" s="12">
+        <v>1.895006076319959E+17</v>
+      </c>
+      <c r="FX6" s="12">
+        <v>1.458508934641889E+17</v>
+      </c>
+      <c r="FY6" s="12">
+        <v>1.12105239632322E+17</v>
+      </c>
+      <c r="FZ6" s="12">
+        <v>8.60519038171928E+16</v>
+      </c>
+      <c r="GA6" s="12">
+        <v>6.5964726582321272E+16</v>
+      </c>
+      <c r="GB6" s="12">
+        <v>5.0498430761683552E+16</v>
+      </c>
+      <c r="GC6" s="12">
+        <v>3.8606057459404416E+16</v>
+      </c>
+      <c r="GD6" s="12">
+        <v>2.947395495204188E+16</v>
+      </c>
+      <c r="GE6" s="12">
+        <v>2.247066407018586E+16</v>
+      </c>
+      <c r="GF6" s="12">
+        <v>1.710678789111014E+16</v>
+      </c>
+      <c r="GG6" s="12">
+        <v>1.300352990000203E+16</v>
+      </c>
+      <c r="GH6" s="12">
+        <v>9868061741824578</v>
+      </c>
+      <c r="GI6" s="12">
+        <v>7474262494210350</v>
+      </c>
+      <c r="GJ6" s="12">
+        <v>5647674854703085</v>
+      </c>
+      <c r="GK6" s="12">
+        <v>4253764969393095</v>
+      </c>
+      <c r="GL6" s="12">
+        <v>3188764114689718</v>
+      </c>
+      <c r="GM6" s="12">
+        <v>2372521964510100</v>
+      </c>
+      <c r="GN6" s="12">
+        <v>1742920663803938</v>
+      </c>
+      <c r="GO6" s="12">
+        <v>1251492726880605</v>
+      </c>
+      <c r="GP6" s="12">
+        <v>859958928045342.25</v>
+      </c>
+      <c r="GQ6" s="12">
+        <v>537458833690064.12</v>
+      </c>
+      <c r="GR6" s="12">
+        <v>258289548397214.41</v>
+      </c>
+      <c r="GS6" s="12">
+        <v>0</v>
+      </c>
       <c r="GT6" s="1"/>
       <c r="GU6" s="1"/>
       <c r="GV6" s="1"/>
